--- a/study01/report/correlation/effective-participants/CorrMatrixAnalysis.xlsx
+++ b/study01/report/correlation/effective-participants/CorrMatrixAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="94">
   <si>
     <t>Correlation information for Gains in Skill/Knowledge and Motivation using the method: spearman</t>
   </si>
@@ -7213,22 +7213,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.015998308548875885</v>
+        <v>-0.05079385993807234</v>
       </c>
       <c r="D6" t="n" s="33">
-        <v>-0.16878183436724256</v>
+        <v>-0.2039381570360582</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>-0.10104837507634783</v>
+        <v>-0.10068326652023576</v>
       </c>
       <c r="F6" t="n" s="35">
-        <v>-0.03423285988365224</v>
+        <v>0.002998494454093065</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.18818086641287454</v>
+        <v>0.19921448227559943</v>
       </c>
     </row>
     <row r="7">
@@ -7236,22 +7236,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.015998308548875885</v>
+        <v>-0.05079385993807234</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n" s="33">
-        <v>0.7575392381692235</v>
+        <v>0.7666013522016261</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.6855971658603063</v>
+        <v>0.68141880379428</v>
       </c>
       <c r="F7" t="n" s="35">
-        <v>-0.4745628060378236</v>
+        <v>-0.4822911746383467</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.3150268745422224</v>
+        <v>0.2973167825295307</v>
       </c>
     </row>
     <row r="8">
@@ -7259,22 +7259,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="31">
-        <v>-0.16878183436724256</v>
+        <v>-0.2039381570360582</v>
       </c>
       <c r="C8" t="n" s="32">
-        <v>0.7575392381692235</v>
+        <v>0.7666013522016261</v>
       </c>
       <c r="D8" t="n" s="33">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>0.4621977417942136</v>
+        <v>0.45365519417097644</v>
       </c>
       <c r="F8" t="n" s="35">
-        <v>-0.25270036761813264</v>
+        <v>-0.27519138138256993</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.11010163437155207</v>
+        <v>0.09194037942112093</v>
       </c>
     </row>
     <row r="9">
@@ -7282,22 +7282,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="31">
-        <v>-0.10104837507634783</v>
+        <v>-0.10068326652023576</v>
       </c>
       <c r="C9" t="n" s="32">
-        <v>0.6855971658603063</v>
+        <v>0.68141880379428</v>
       </c>
       <c r="D9" t="n" s="33">
-        <v>0.4621977417942136</v>
+        <v>0.45365519417097644</v>
       </c>
       <c r="E9" t="n" s="34">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="35">
-        <v>-0.17571336681308047</v>
+        <v>-0.16992296740527624</v>
       </c>
       <c r="G9" t="n" s="36">
-        <v>0.013824937639226384</v>
+        <v>0.02379144029477035</v>
       </c>
     </row>
     <row r="10">
@@ -7305,22 +7305,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="31">
-        <v>-0.03423285988365224</v>
+        <v>0.002998494454093065</v>
       </c>
       <c r="C10" t="n" s="32">
-        <v>-0.4745628060378236</v>
+        <v>-0.4822911746383467</v>
       </c>
       <c r="D10" t="n" s="33">
-        <v>-0.25270036761813264</v>
+        <v>-0.27519138138256993</v>
       </c>
       <c r="E10" t="n" s="34">
-        <v>-0.17571336681308047</v>
+        <v>-0.16992296740527624</v>
       </c>
       <c r="F10" t="n" s="35">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n" s="36">
-        <v>0.2684457052541702</v>
+        <v>0.2793035155244163</v>
       </c>
     </row>
     <row r="11">
@@ -7328,22 +7328,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="31">
-        <v>0.18818086641287454</v>
+        <v>0.19921448227559943</v>
       </c>
       <c r="C11" t="n" s="32">
-        <v>0.3150268745422224</v>
+        <v>0.2973167825295307</v>
       </c>
       <c r="D11" t="n" s="33">
-        <v>0.11010163437155207</v>
+        <v>0.09194037942112093</v>
       </c>
       <c r="E11" t="n" s="34">
-        <v>0.013824937639226384</v>
+        <v>0.02379144029477035</v>
       </c>
       <c r="F11" t="n" s="35">
-        <v>0.2684457052541702</v>
+        <v>0.2793035155244163</v>
       </c>
       <c r="G11" t="n" s="36">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -7386,23 +7386,23 @@
       <c r="A16" t="s" s="50">
         <v>3</v>
       </c>
-      <c r="B16" t="n" s="55">
-        <v>3.075314490824969E8</v>
+      <c r="B16" t="e" s="55">
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="56">
-        <v>-0.1036941602139565</v>
+        <v>-0.3335081199908267</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>-1.1097524395098213</v>
+        <v>-1.3660205247435906</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>-0.6582374966086376</v>
+        <v>-0.6635963762085928</v>
       </c>
       <c r="F16" t="n" s="59">
-        <v>-0.22198439690295055</v>
+        <v>0.019662531440979684</v>
       </c>
       <c r="G16" t="n" s="60">
-        <v>1.241735765589286</v>
+        <v>1.3330566245647772</v>
       </c>
     </row>
     <row r="17">
@@ -7410,22 +7410,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="55">
-        <v>-0.1036941602139565</v>
-      </c>
-      <c r="C17" t="n" s="56">
-        <v>3.075314490824969E8</v>
+        <v>-0.3335081199908267</v>
+      </c>
+      <c r="C17" t="e" s="56">
+        <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="57">
-        <v>7.520669962597928</v>
+        <v>7.828622680429069</v>
       </c>
       <c r="E17" t="n" s="58">
-        <v>6.103423935301157</v>
+        <v>6.105205998964672</v>
       </c>
       <c r="F17" t="n" s="59">
-        <v>-3.4940273406065048</v>
+        <v>-3.6102227369284887</v>
       </c>
       <c r="G17" t="n" s="60">
-        <v>2.1511374900734976</v>
+        <v>2.041976987470655</v>
       </c>
     </row>
     <row r="18">
@@ -7433,22 +7433,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="55">
-        <v>-1.1097524395098213</v>
+        <v>-1.3660205247435906</v>
       </c>
       <c r="C18" t="n" s="56">
-        <v>7.520669962597928</v>
-      </c>
-      <c r="D18" t="n" s="57">
-        <v>3.075314490824969E8</v>
+        <v>7.828622680429069</v>
+      </c>
+      <c r="D18" t="e" s="57">
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="58">
-        <v>3.377832417104574</v>
+        <v>3.338074337773902</v>
       </c>
       <c r="F18" t="n" s="59">
-        <v>-1.6926202493428761</v>
+        <v>-1.877023445060255</v>
       </c>
       <c r="G18" t="n" s="60">
-        <v>0.7179047641015344</v>
+        <v>0.6054577941816259</v>
       </c>
     </row>
     <row r="19">
@@ -7456,22 +7456,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="55">
-        <v>-0.6582374966086376</v>
+        <v>-0.6635963762085928</v>
       </c>
       <c r="C19" t="n" s="56">
-        <v>6.103423935301157</v>
+        <v>6.105205998964672</v>
       </c>
       <c r="D19" t="n" s="57">
-        <v>3.377832417104574</v>
+        <v>3.338074337773902</v>
       </c>
       <c r="E19" t="e" s="58">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="59">
-        <v>-1.1567502151278721</v>
+        <v>-1.1307028301599822</v>
       </c>
       <c r="G19" t="n" s="60">
-        <v>0.08960439941586358</v>
+        <v>0.1560550795228407</v>
       </c>
     </row>
     <row r="20">
@@ -7479,22 +7479,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="55">
-        <v>-0.22198439690295055</v>
+        <v>0.019662531440979684</v>
       </c>
       <c r="C20" t="n" s="56">
-        <v>-3.4940273406065048</v>
+        <v>-3.6102227369284887</v>
       </c>
       <c r="D20" t="n" s="57">
-        <v>-1.6926202493428761</v>
+        <v>-1.877023445060255</v>
       </c>
       <c r="E20" t="n" s="58">
-        <v>-1.1567502151278721</v>
-      </c>
-      <c r="F20" t="n" s="59">
-        <v>3.075314490824969E8</v>
+        <v>-1.1307028301599822</v>
+      </c>
+      <c r="F20" t="e" s="59">
+        <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="60">
-        <v>1.8060172002475858</v>
+        <v>1.9074257067959268</v>
       </c>
     </row>
     <row r="21">
@@ -7502,22 +7502,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="55">
-        <v>1.241735765589286</v>
+        <v>1.3330566245647772</v>
       </c>
       <c r="C21" t="n" s="56">
-        <v>2.1511374900734976</v>
+        <v>2.041976987470655</v>
       </c>
       <c r="D21" t="n" s="57">
-        <v>0.7179047641015344</v>
+        <v>0.6054577941816259</v>
       </c>
       <c r="E21" t="n" s="58">
-        <v>0.08960439941586358</v>
+        <v>0.1560550795228407</v>
       </c>
       <c r="F21" t="n" s="59">
-        <v>1.8060172002475858</v>
-      </c>
-      <c r="G21" t="n" s="60">
-        <v>3.075314490824969E8</v>
+        <v>1.9074257067959268</v>
+      </c>
+      <c r="G21" t="e" s="60">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22">
@@ -7561,7 +7561,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="79">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="80">
         <v>1.0</v>
@@ -7584,22 +7584,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="79">
-        <v>0.9179056360004487</v>
+        <v>0.7403716554853772</v>
       </c>
       <c r="C27" t="n" s="80">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="81">
-        <v>3.96129075318191E-8</v>
+        <v>1.2452575704300667E-8</v>
       </c>
       <c r="E27" t="n" s="82">
-        <v>3.947433664866058E-6</v>
+        <v>3.5986186378513912E-6</v>
       </c>
       <c r="F27" t="n" s="83">
-        <v>0.014759194112171761</v>
+        <v>0.01031918822498326</v>
       </c>
       <c r="G27" t="n" s="84">
-        <v>0.4099075549559562</v>
+        <v>0.5204977597032443</v>
       </c>
     </row>
     <row r="28">
@@ -7607,19 +7607,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="79">
-        <v>0.2734194247743853</v>
+        <v>0.1790347813634225</v>
       </c>
       <c r="C28" t="n" s="80">
-        <v>2.6408605021212733E-9</v>
+        <v>8.301717136200445E-10</v>
       </c>
       <c r="D28" t="n" s="81">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="E28" t="n" s="82">
-        <v>0.019025449465171436</v>
+        <v>0.020988185750888774</v>
       </c>
       <c r="F28" t="n" s="83">
-        <v>0.8814097497822984</v>
+        <v>0.6315912497145062</v>
       </c>
       <c r="G28" t="n" s="84">
         <v>1.0</v>
@@ -7630,13 +7630,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="79">
-        <v>0.5139776815196083</v>
+        <v>0.5104910477342359</v>
       </c>
       <c r="C29" t="n" s="80">
-        <v>2.8195954749043273E-7</v>
+        <v>2.570441884179565E-7</v>
       </c>
       <c r="D29" t="n" s="81">
-        <v>0.0015854541220976196</v>
+        <v>0.0017490154792407313</v>
       </c>
       <c r="E29" t="n" s="82">
         <v>-0.0</v>
@@ -7653,22 +7653,22 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="79">
-        <v>0.825401910908857</v>
+        <v>0.984403537081439</v>
       </c>
       <c r="C30" t="n" s="80">
-        <v>0.0011353226240132124</v>
+        <v>7.937837096140969E-4</v>
       </c>
       <c r="D30" t="n" s="81">
-        <v>0.0979344166424776</v>
+        <v>0.06731032105329601</v>
       </c>
       <c r="E30" t="n" s="82">
-        <v>0.25391150587113653</v>
+        <v>0.26444751217735946</v>
       </c>
       <c r="F30" t="n" s="83">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="G30" t="n" s="84">
-        <v>0.7808545098568699</v>
+        <v>0.6315912497145062</v>
       </c>
     </row>
     <row r="31">
@@ -7676,22 +7676,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="79">
-        <v>0.22122392837125873</v>
+        <v>0.1895333131240687</v>
       </c>
       <c r="C31" t="n" s="80">
-        <v>0.0372643231778142</v>
+        <v>0.04731797815484039</v>
       </c>
       <c r="D31" t="n" s="81">
-        <v>0.47679049666853024</v>
+        <v>0.5480573450577363</v>
       </c>
       <c r="E31" t="n" s="82">
-        <v>0.929027529822743</v>
+        <v>0.8767199525351248</v>
       </c>
       <c r="F31" t="n" s="83">
-        <v>0.07808545098568699</v>
+        <v>0.06315912497145063</v>
       </c>
       <c r="G31" t="n" s="84">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="32">
@@ -7729,16 +7729,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="103">
-        <v>-0.3113996603054708</v>
+        <v>-0.33926936048887246</v>
       </c>
       <c r="C36" t="n" s="104">
-        <v>-0.015998308548875885</v>
+        <v>-0.05079385993807234</v>
       </c>
       <c r="D36" t="n" s="105">
-        <v>0.28222250139232985</v>
+        <v>0.24641401600265264</v>
       </c>
       <c r="E36" t="n" s="106">
-        <v>0.9179056360004487</v>
+        <v>0.7403716554853772</v>
       </c>
     </row>
     <row r="37">
@@ -7746,16 +7746,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="103">
-        <v>-0.44344219727738843</v>
+        <v>-0.46937404097640656</v>
       </c>
       <c r="C37" t="n" s="104">
-        <v>-0.16878183436724256</v>
+        <v>-0.2039381570360582</v>
       </c>
       <c r="D37" t="n" s="105">
-        <v>0.13485589728713057</v>
+        <v>0.09530071939240323</v>
       </c>
       <c r="E37" t="n" s="106">
-        <v>0.2734194247743853</v>
+        <v>0.1790347813634225</v>
       </c>
     </row>
     <row r="38">
@@ -7763,16 +7763,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="103">
-        <v>-0.3863388583909023</v>
+        <v>-0.3829009419067197</v>
       </c>
       <c r="C38" t="n" s="104">
-        <v>-0.10104837507634783</v>
+        <v>-0.10068326652023576</v>
       </c>
       <c r="D38" t="n" s="105">
-        <v>0.2018885050495078</v>
+        <v>0.1987237167382016</v>
       </c>
       <c r="E38" t="n" s="106">
-        <v>0.5139776815196083</v>
+        <v>0.5104910477342359</v>
       </c>
     </row>
     <row r="39">
@@ -7780,16 +7780,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="103">
-        <v>-0.3277819613203459</v>
+        <v>-0.2907913602713892</v>
       </c>
       <c r="C39" t="n" s="104">
-        <v>-0.03423285988365224</v>
+        <v>0.002998494454093065</v>
       </c>
       <c r="D39" t="n" s="105">
-        <v>0.2653442209788721</v>
+        <v>0.29627163992274824</v>
       </c>
       <c r="E39" t="n" s="106">
-        <v>0.825401910908857</v>
+        <v>0.984403537081439</v>
       </c>
     </row>
     <row r="40">
@@ -7797,16 +7797,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="103">
-        <v>-0.11513158395922966</v>
+        <v>-0.10017742537324678</v>
       </c>
       <c r="C40" t="n" s="104">
-        <v>0.18818086641287454</v>
+        <v>0.19921448227559943</v>
       </c>
       <c r="D40" t="n" s="105">
-        <v>0.45939606276767564</v>
+        <v>0.4655261886942566</v>
       </c>
       <c r="E40" t="n" s="106">
-        <v>0.22122392837125873</v>
+        <v>0.1895333131240687</v>
       </c>
     </row>
     <row r="41">
@@ -7814,16 +7814,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="103">
-        <v>0.5943207248368721</v>
+        <v>0.6104281052739587</v>
       </c>
       <c r="C41" t="n" s="104">
-        <v>0.7575392381692235</v>
+        <v>0.7666013522016261</v>
       </c>
       <c r="D41" t="n" s="105">
-        <v>0.8608220053468999</v>
+        <v>0.8653999449566883</v>
       </c>
       <c r="E41" t="n" s="106">
-        <v>2.6408605021212733E-9</v>
+        <v>8.301717136200445E-10</v>
       </c>
     </row>
     <row r="42">
@@ -7831,16 +7831,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="103">
-        <v>0.4880558491070047</v>
+        <v>0.4848679499962737</v>
       </c>
       <c r="C42" t="n" s="104">
-        <v>0.6855971658603063</v>
+        <v>0.68141880379428</v>
       </c>
       <c r="D42" t="n" s="105">
-        <v>0.8163228960581504</v>
+        <v>0.8124473757651443</v>
       </c>
       <c r="E42" t="n" s="106">
-        <v>2.8195954749043273E-7</v>
+        <v>2.570441884179565E-7</v>
       </c>
     </row>
     <row r="43">
@@ -7848,16 +7848,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="103">
-        <v>-0.6761776076816944</v>
+        <v>-0.6796130694906938</v>
       </c>
       <c r="C43" t="n" s="104">
-        <v>-0.4745628060378236</v>
+        <v>-0.4822911746383467</v>
       </c>
       <c r="D43" t="n" s="105">
-        <v>-0.2068211297845651</v>
+        <v>-0.21988630668454012</v>
       </c>
       <c r="E43" t="n" s="106">
-        <v>0.0011353226240132124</v>
+        <v>7.937837096140969E-4</v>
       </c>
     </row>
     <row r="44">
@@ -7865,16 +7865,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="103">
-        <v>0.020018764911845354</v>
+        <v>0.004144578653420588</v>
       </c>
       <c r="C44" t="n" s="104">
-        <v>0.3150268745422224</v>
+        <v>0.2973167825295307</v>
       </c>
       <c r="D44" t="n" s="105">
-        <v>0.5595730137514856</v>
+        <v>0.5434246361792067</v>
       </c>
       <c r="E44" t="n" s="106">
-        <v>0.0372643231778142</v>
+        <v>0.04731797815484039</v>
       </c>
     </row>
     <row r="45">
@@ -7882,16 +7882,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="103">
-        <v>0.19160954141205527</v>
+        <v>0.18471906051608755</v>
       </c>
       <c r="C45" t="n" s="104">
-        <v>0.4621977417942136</v>
+        <v>0.45365519417097644</v>
       </c>
       <c r="D45" t="n" s="105">
-        <v>0.667487226041422</v>
+        <v>0.65938349985631</v>
       </c>
       <c r="E45" t="n" s="106">
-        <v>0.0015854541220976196</v>
+        <v>0.0017490154792407313</v>
       </c>
     </row>
     <row r="46">
@@ -7899,16 +7899,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="103">
-        <v>-0.511227538827523</v>
+        <v>-0.5262184202738363</v>
       </c>
       <c r="C46" t="n" s="104">
-        <v>-0.25270036761813264</v>
+        <v>-0.27519138138256993</v>
       </c>
       <c r="D46" t="n" s="105">
-        <v>0.0477632898775641</v>
+        <v>0.019954407671979656</v>
       </c>
       <c r="E46" t="n" s="106">
-        <v>0.0979344166424776</v>
+        <v>0.06731032105329601</v>
       </c>
     </row>
     <row r="47">
@@ -7916,16 +7916,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="103">
-        <v>-0.19309028087329072</v>
+        <v>-0.20718496128198016</v>
       </c>
       <c r="C47" t="n" s="104">
-        <v>0.11010163437155207</v>
+        <v>0.09194037942112093</v>
       </c>
       <c r="D47" t="n" s="105">
-        <v>0.39410005101262646</v>
+        <v>0.3753446332375926</v>
       </c>
       <c r="E47" t="n" s="106">
-        <v>0.47679049666853024</v>
+        <v>0.5480573450577363</v>
       </c>
     </row>
     <row r="48">
@@ -7933,16 +7933,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="103">
-        <v>-0.44916277941434396</v>
+        <v>-0.4414387305709784</v>
       </c>
       <c r="C48" t="n" s="104">
-        <v>-0.17571336681308047</v>
+        <v>-0.16992296740527624</v>
       </c>
       <c r="D48" t="n" s="105">
-        <v>0.1278356594824737</v>
+        <v>0.13010009704215833</v>
       </c>
       <c r="E48" t="n" s="106">
-        <v>0.25391150587113653</v>
+        <v>0.26444751217735946</v>
       </c>
     </row>
     <row r="49">
@@ -7950,16 +7950,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="103">
-        <v>-0.28422198011547234</v>
+        <v>-0.27163949163343926</v>
       </c>
       <c r="C49" t="n" s="104">
-        <v>0.013824937639226384</v>
+        <v>0.02379144029477035</v>
       </c>
       <c r="D49" t="n" s="105">
-        <v>0.3094352766832057</v>
+        <v>0.3151246493724868</v>
       </c>
       <c r="E49" t="n" s="106">
-        <v>0.929027529822743</v>
+        <v>0.8767199525351248</v>
       </c>
     </row>
     <row r="50">
@@ -7967,16 +7967,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="103">
-        <v>-0.03089704415264385</v>
+        <v>-0.015501268675378068</v>
       </c>
       <c r="C50" t="n" s="104">
-        <v>0.2684457052541702</v>
+        <v>0.2793035155244163</v>
       </c>
       <c r="D50" t="n" s="105">
-        <v>0.5235973268550822</v>
+        <v>0.5294319228582705</v>
       </c>
       <c r="E50" t="n" s="106">
-        <v>0.07808545098568699</v>
+        <v>0.06315912497145063</v>
       </c>
     </row>
     <row r="51">
@@ -8476,427 +8476,442 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="125">
-        <v>0.1736163319851855</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B78" t="n" s="126">
-        <v>0.8019489381162106</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="C78" t="n" s="127">
         <v>1.4951617995718107</v>
       </c>
       <c r="D78" t="n" s="128">
-        <v>0.27922605818079327</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E78" t="n" s="129">
-        <v>0.8224933277993178</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F78" t="n" s="130">
-        <v>1.8670095161405151</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="125">
-        <v>0.5809977278311512</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="B79" t="n" s="126">
-        <v>-1.1109589850467905</v>
+        <v>0.8019489381162106</v>
       </c>
       <c r="C79" t="n" s="127">
-        <v>-0.7897528725203661</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D79" t="n" s="128">
-        <v>-1.2104795319559272</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="E79" t="n" s="129">
-        <v>2.4262382357267374</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="F79" t="n" s="130">
-        <v>1.5139624552773951</v>
+        <v>1.8670095161405151</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="125">
-        <v>0.3192426882839674</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="B80" t="n" s="126">
-        <v>0.2189999017361688</v>
+        <v>-1.1109589850467905</v>
       </c>
       <c r="C80" t="n" s="127">
         <v>-0.7897528725203661</v>
       </c>
       <c r="D80" t="n" s="128">
-        <v>1.60499198206012</v>
+        <v>-1.2104795319559272</v>
       </c>
       <c r="E80" t="n" s="129">
-        <v>-0.007369671226134189</v>
+        <v>2.4262382357267374</v>
       </c>
       <c r="F80" t="n" s="130">
-        <v>-0.8230168399103068</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="125">
-        <v>-0.024963847923433036</v>
+        <v>0.3192426882839674</v>
       </c>
       <c r="B81" t="n" s="126">
-        <v>0.8112171488100235</v>
+        <v>0.2189999017361688</v>
       </c>
       <c r="C81" t="n" s="127">
-        <v>1.9117264102869815</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="D81" t="n" s="128">
-        <v>0.6054282939846205</v>
+        <v>1.60499198206012</v>
       </c>
       <c r="E81" t="n" s="129">
-        <v>-0.9136302798736791</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="F81" t="n" s="130">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="125">
-        <v>0.16036616228342887</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="B82" t="n" s="126">
-        <v>-0.23339570282962474</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="C82" t="n" s="127">
-        <v>-0.2748557234267931</v>
+        <v>1.9117264102869815</v>
       </c>
       <c r="D82" t="n" s="128">
-        <v>1.0818912275643542</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="E82" t="n" s="129">
-        <v>1.65803832991597</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="F82" t="n" s="130">
-        <v>-0.08257998554008988</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="125">
-        <v>0.6197193432307015</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="B83" t="n" s="126">
-        <v>0.8165526685947714</v>
+        <v>-0.23339570282962474</v>
       </c>
       <c r="C83" t="n" s="127">
-        <v>1.4951617995718105</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D83" t="n" s="128">
-        <v>0.1399511423221378</v>
+        <v>1.0818912275643542</v>
       </c>
       <c r="E83" t="n" s="129">
-        <v>0.624803490026419</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="F83" t="n" s="130">
-        <v>1.5139624552773951</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="125">
-        <v>0.8241600424703993</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="B84" t="n" s="126">
-        <v>-0.2328161539268661</v>
+        <v>0.8165526685947714</v>
       </c>
       <c r="C84" t="n" s="127">
-        <v>-1.4355957758372622</v>
+        <v>1.4951617995718105</v>
       </c>
       <c r="D84" t="n" s="128">
-        <v>-1.3020766723778172</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="E84" t="n" s="129">
-        <v>-0.9136302798736788</v>
+        <v>0.624803490026419</v>
       </c>
       <c r="F84" t="n" s="130">
-        <v>2.1129633750384773</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="125">
-        <v>0.45823897387483636</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B85" t="n" s="126">
-        <v>-0.9025119136659654</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="C85" t="n" s="127">
-        <v>-1.2095717428674873</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="D85" t="n" s="128">
-        <v>-1.4411884156504111</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="E85" t="n" s="129">
-        <v>2.074471030670177</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F85" t="n" s="130">
-        <v>1.1151835345242138</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="125">
-        <v>0.34235911521372075</v>
+        <v>0.45823897387483636</v>
       </c>
       <c r="B86" t="n" s="126">
-        <v>-0.18410762009178533</v>
+        <v>-0.9025119136659654</v>
       </c>
       <c r="C86" t="n" s="127">
-        <v>0.6258755079433425</v>
+        <v>-1.2095717428674873</v>
       </c>
       <c r="D86" t="n" s="128">
-        <v>-0.4561855465861614</v>
+        <v>-1.4411884156504111</v>
       </c>
       <c r="E86" t="n" s="129">
-        <v>-0.9136302798736791</v>
+        <v>2.074471030670177</v>
       </c>
       <c r="F86" t="n" s="130">
-        <v>-1.439574674914235</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="125">
-        <v>0.20541005082214986</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="B87" t="n" s="126">
-        <v>-1.1360680709159172</v>
+        <v>-0.18410762009178533</v>
       </c>
       <c r="C87" t="n" s="127">
-        <v>-1.5404013326984634</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="D87" t="n" s="128">
-        <v>-0.8853012149884174</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="E87" t="n" s="129">
-        <v>0.8224933277993178</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="F87" t="n" s="130">
-        <v>-1.2960764081774698</v>
+        <v>-1.439574674914235</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="125">
-        <v>0.9414417956731057</v>
+        <v>0.20541005082214986</v>
       </c>
       <c r="B88" t="n" s="126">
-        <v>0.36156332804054137</v>
+        <v>-1.1360680709159172</v>
       </c>
       <c r="C88" t="n" s="127">
-        <v>0.04532479257032096</v>
+        <v>-1.5404013326984634</v>
       </c>
       <c r="D88" t="n" s="128">
-        <v>0.8125130980292388</v>
+        <v>-0.8853012149884174</v>
       </c>
       <c r="E88" t="n" s="129">
-        <v>-0.007369671226134078</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="F88" t="n" s="130">
-        <v>0.5796993919154849</v>
+        <v>-1.2960764081774698</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="125">
-        <v>0.7332629222565488</v>
+        <v>0.9414417956731057</v>
       </c>
       <c r="B89" t="n" s="126">
-        <v>0.34555454321080625</v>
+        <v>0.36156332804054137</v>
       </c>
       <c r="C89" t="n" s="127">
-        <v>-0.9440135863889301</v>
+        <v>0.04532479257032096</v>
       </c>
       <c r="D89" t="n" s="128">
-        <v>1.4951814648985664</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="E89" t="n" s="129">
-        <v>-0.9136302798736788</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="F89" t="n" s="130">
-        <v>-0.08257998554008972</v>
+        <v>0.5796993919154849</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="125">
-        <v>0.3359920405213156</v>
+        <v>0.7332629222565488</v>
       </c>
       <c r="B90" t="n" s="126">
-        <v>-0.5982535009893035</v>
+        <v>0.34555454321080625</v>
       </c>
       <c r="C90" t="n" s="127">
-        <v>-1.3261001130049008</v>
+        <v>-0.9440135863889301</v>
       </c>
       <c r="D90" t="n" s="128">
-        <v>0.010078688627185084</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="E90" t="n" s="129">
-        <v>1.65803832991597</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F90" t="n" s="130">
-        <v>0.5810457503364718</v>
+        <v>-0.08257998554008972</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="125">
-        <v>0.5034537644515523</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="B91" t="n" s="126">
-        <v>-0.48046357674448575</v>
+        <v>-0.5982535009893035</v>
       </c>
       <c r="C91" t="n" s="127">
-        <v>-1.083222632087991</v>
+        <v>-1.3261001130049008</v>
       </c>
       <c r="D91" t="n" s="128">
-        <v>-0.4561855465861614</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E91" t="n" s="129">
-        <v>-0.9136302798736788</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="F91" t="n" s="130">
-        <v>-1.2960764081774698</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="125">
-        <v>0.3937723028891714</v>
+        <v>0.5034537644515523</v>
       </c>
       <c r="B92" t="n" s="126">
-        <v>0.64143407661485</v>
+        <v>-0.48046357674448575</v>
       </c>
       <c r="C92" t="n" s="127">
-        <v>0.6258755079433423</v>
+        <v>-1.083222632087991</v>
       </c>
       <c r="D92" t="n" s="128">
-        <v>0.8125130980292387</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="E92" t="n" s="129">
-        <v>-0.9136302798736785</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F92" t="n" s="130">
-        <v>0.21371742061314003</v>
+        <v>-1.2960764081774698</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="125">
-        <v>0.45629679199508744</v>
+        <v>0.3937723028891714</v>
       </c>
       <c r="B93" t="n" s="126">
-        <v>0.3074747488526356</v>
+        <v>0.64143407661485</v>
       </c>
       <c r="C93" t="n" s="127">
-        <v>-0.2748557234267931</v>
+        <v>0.6258755079433423</v>
       </c>
       <c r="D93" t="n" s="128">
-        <v>0.010078688627185084</v>
+        <v>0.8125130980292387</v>
       </c>
       <c r="E93" t="n" s="129">
-        <v>-0.9136302798736788</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="F93" t="n" s="130">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="125">
-        <v>0.5860505124924433</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B94" t="n" s="126">
-        <v>0.492799217216467</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="C94" t="n" s="127">
-        <v>1.4951617995718107</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D94" t="n" s="128">
-        <v>0.8125130980292388</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E94" t="n" s="129">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F94" t="n" s="130">
-        <v>-0.34384769996131537</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="125">
-        <v>0.2994892197097739</v>
+        <v>0.5860505124924433</v>
       </c>
       <c r="B95" t="n" s="126">
-        <v>-0.17005362149882175</v>
+        <v>0.492799217216467</v>
       </c>
       <c r="C95" t="n" s="127">
-        <v>0.6258755079433425</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D95" t="n" s="128">
-        <v>-0.11298912178826864</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="E95" t="n" s="129">
-        <v>1.406818292763501</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="F95" t="n" s="130">
-        <v>0.21371742061314003</v>
+        <v>-0.34384769996131537</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="125">
-        <v>0.10586023279338319</v>
+        <v>0.2994892197097739</v>
       </c>
       <c r="B96" t="n" s="126">
-        <v>-0.022059637352467965</v>
+        <v>-0.17005362149882175</v>
       </c>
       <c r="C96" t="n" s="127">
-        <v>0.04532479257032096</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="D96" t="n" s="128">
-        <v>0.010078688627185084</v>
+        <v>-0.11298912178826864</v>
       </c>
       <c r="E96" t="n" s="129">
-        <v>-0.9136302798736788</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="F96" t="n" s="130">
-        <v>-1.0572723104810566</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="125">
-        <v>0.32778389637104416</v>
+        <v>0.10586023279338319</v>
       </c>
       <c r="B97" t="n" s="126">
-        <v>-1.106203408558609</v>
+        <v>-0.022059637352467965</v>
       </c>
       <c r="C97" t="n" s="127">
-        <v>-0.9440135863889301</v>
+        <v>0.04532479257032096</v>
       </c>
       <c r="D97" t="n" s="128">
-        <v>-1.3237490316352398</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E97" t="n" s="129">
-        <v>2.074471030670177</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F97" t="n" s="130">
-        <v>-0.08257998554008983</v>
+        <v>-1.0572723104810566</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="125">
+        <v>0.32778389637104416</v>
+      </c>
+      <c r="B98" t="n" s="126">
+        <v>-1.106203408558609</v>
+      </c>
+      <c r="C98" t="n" s="127">
+        <v>-0.9440135863889301</v>
+      </c>
+      <c r="D98" t="n" s="128">
+        <v>-1.3237490316352398</v>
+      </c>
+      <c r="E98" t="n" s="129">
+        <v>2.074471030670177</v>
+      </c>
+      <c r="F98" t="n" s="130">
+        <v>-0.08257998554008983</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="125">
         <v>0.8546964096694867</v>
       </c>
-      <c r="B98" t="n" s="126">
+      <c r="B99" t="n" s="126">
         <v>-0.791089338425403</v>
       </c>
-      <c r="C98" t="n" s="127">
+      <c r="C99" t="n" s="127">
         <v>-1.2095717428674873</v>
       </c>
-      <c r="D98" t="n" s="128">
+      <c r="D99" t="n" s="128">
         <v>-1.3020766723778172</v>
       </c>
-      <c r="E98" t="n" s="129">
+      <c r="E99" t="n" s="129">
         <v>-0.9136302798736788</v>
       </c>
-      <c r="F98" t="n" s="130">
+      <c r="F99" t="n" s="130">
         <v>-0.8230168399103068</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -8905,74 +8920,56 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="134">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="134">
         <v>32</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s" s="148">
+    <row r="103">
+      <c r="A103" t="s" s="148">
         <v>33</v>
       </c>
-      <c r="B102" t="s" s="148">
+      <c r="B103" t="s" s="148">
         <v>3</v>
       </c>
-      <c r="C102" t="s" s="148">
+      <c r="C103" t="s" s="148">
         <v>4</v>
       </c>
-      <c r="D102" t="s" s="148">
+      <c r="D103" t="s" s="148">
         <v>5</v>
       </c>
-      <c r="E102" t="s" s="148">
+      <c r="E103" t="s" s="148">
         <v>6</v>
       </c>
-      <c r="F102" t="s" s="148">
+      <c r="F103" t="s" s="148">
         <v>7</v>
       </c>
-      <c r="G102" t="s" s="148">
+      <c r="G103" t="s" s="148">
         <v>8</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n" s="149">
-        <v>10169.0</v>
-      </c>
-      <c r="B103" t="n" s="150">
-        <v>0.3438762335287266</v>
-      </c>
-      <c r="C103" t="n" s="151">
-        <v>-0.04507312831536972</v>
-      </c>
-      <c r="D103" t="n" s="152">
-        <v>0.773547756634461</v>
-      </c>
-      <c r="E103" t="n" s="153">
-        <v>-0.34506436270976193</v>
-      </c>
-      <c r="F103" t="n" s="154">
-        <v>0.8224933277993178</v>
-      </c>
-      <c r="G103" t="n" s="155">
-        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="149">
-        <v>10170.0</v>
+        <v>10169.0</v>
       </c>
       <c r="B104" t="n" s="150">
-        <v>0.44355069885067455</v>
+        <v>0.3438762335287266</v>
       </c>
       <c r="C104" t="n" s="151">
-        <v>0.5697381260416503</v>
+        <v>-0.04507312831536972</v>
       </c>
       <c r="D104" t="n" s="152">
-        <v>0.3390917056505436</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="E104" t="n" s="153">
-        <v>0.8125130980292388</v>
+        <v>-0.34506436270976193</v>
       </c>
       <c r="F104" t="n" s="154">
-        <v>-0.9136302798736788</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="G104" t="n" s="155">
         <v>0.21371742061314003</v>
@@ -8980,344 +8977,344 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="149">
-        <v>10171.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B105" t="n" s="150">
-        <v>0.7980642794979789</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="C105" t="n" s="151">
-        <v>0.28259495124012457</v>
+        <v>0.5697381260416503</v>
       </c>
       <c r="D105" t="n" s="152">
-        <v>0.773547756634461</v>
+        <v>0.3390917056505436</v>
       </c>
       <c r="E105" t="n" s="153">
-        <v>0.4320423626399933</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="F105" t="n" s="154">
-        <v>-0.007369671226134189</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="G105" t="n" s="155">
-        <v>-0.08257998554008983</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="149">
-        <v>10174.0</v>
+        <v>10171.0</v>
       </c>
       <c r="B106" t="n" s="150">
-        <v>0.35861364877545043</v>
+        <v>0.7980642794979789</v>
       </c>
       <c r="C106" t="n" s="151">
-        <v>0.15069702561789527</v>
+        <v>0.28259495124012457</v>
       </c>
       <c r="D106" t="n" s="152">
-        <v>0.04532479257032093</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="E106" t="n" s="153">
-        <v>-0.5650898958490881</v>
+        <v>0.4320423626399933</v>
       </c>
       <c r="F106" t="n" s="154">
-        <v>-0.007369671226134078</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="G106" t="n" s="155">
-        <v>1.1151835345242138</v>
+        <v>-0.08257998554008983</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="149">
-        <v>10175.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B107" t="n" s="150">
-        <v>-0.024963847923433036</v>
+        <v>0.35861364877545043</v>
       </c>
       <c r="C107" t="n" s="151">
-        <v>0.8112171488100235</v>
+        <v>0.15069702561789527</v>
       </c>
       <c r="D107" t="n" s="152">
-        <v>0.773547756634461</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="E107" t="n" s="153">
-        <v>1.7454889568746412</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="F107" t="n" s="154">
-        <v>-0.9136302798736791</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="G107" t="n" s="155">
-        <v>-0.5874012181606069</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="149">
-        <v>10176.0</v>
+        <v>10175.0</v>
       </c>
       <c r="B108" t="n" s="150">
-        <v>0.5310873221279265</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="C108" t="n" s="151">
-        <v>-0.6106220062284993</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="D108" t="n" s="152">
-        <v>-0.621765728385078</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="E108" t="n" s="153">
-        <v>0.27922605818079327</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="F108" t="n" s="154">
-        <v>1.276931514799406</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="G108" t="n" s="155">
-        <v>-0.8230168399103068</v>
+        <v>-0.5874012181606069</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="149">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B109" t="n" s="150">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="C109" t="n" s="151">
-        <v>-0.07571978819468783</v>
+        <v>-0.6106220062284993</v>
       </c>
       <c r="D109" t="n" s="152">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
       <c r="E109" t="n" s="153">
         <v>0.27922605818079327</v>
       </c>
       <c r="F109" t="n" s="154">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="G109" t="n" s="155">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="149">
-        <v>10179.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B110" t="n" s="150">
-        <v>0.7178179456681062</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="C110" t="n" s="151">
-        <v>-0.4654507279049903</v>
+        <v>-0.07571978819468783</v>
       </c>
       <c r="D110" t="n" s="152">
-        <v>-0.9440135863889301</v>
+        <v>0.19438092697207512</v>
       </c>
       <c r="E110" t="n" s="153">
-        <v>-1.2104795319559272</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="F110" t="n" s="154">
-        <v>0.8224933277993178</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="G110" t="n" s="155">
-        <v>0.5796993919154847</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="149">
-        <v>10183.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B111" t="n" s="150">
-        <v>0.6398767900707459</v>
+        <v>0.7178179456681062</v>
       </c>
       <c r="C111" t="n" s="151">
-        <v>-0.534796421058169</v>
+        <v>-0.4654507279049903</v>
       </c>
       <c r="D111" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>-0.9440135863889301</v>
       </c>
       <c r="E111" t="n" s="153">
-        <v>0.010078688627185084</v>
+        <v>-1.2104795319559272</v>
       </c>
       <c r="F111" t="n" s="154">
-        <v>1.276931514799406</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="G111" t="n" s="155">
-        <v>-0.08257998554008988</v>
+        <v>0.5796993919154847</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="149">
-        <v>10184.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B112" t="n" s="150">
-        <v>0.3038326457914028</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="C112" t="n" s="151">
-        <v>-0.0024811512813002756</v>
+        <v>-0.534796421058169</v>
       </c>
       <c r="D112" t="n" s="152">
-        <v>-0.2748557234267931</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E112" t="n" s="153">
-        <v>0.1399511423221378</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="F112" t="n" s="154">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="G112" t="n" s="155">
-        <v>1.1151835345242138</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="149">
-        <v>10185.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B113" t="n" s="150">
-        <v>0.6117407227935575</v>
+        <v>0.3038326457914028</v>
       </c>
       <c r="C113" t="n" s="151">
-        <v>-0.7331118862687052</v>
+        <v>-0.0024811512813002756</v>
       </c>
       <c r="D113" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="E113" t="n" s="153">
-        <v>-0.5650898958490881</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="F113" t="n" s="154">
         <v>0.9902035585447597</v>
       </c>
       <c r="G113" t="n" s="155">
-        <v>-0.5874012181606069</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="149">
-        <v>10186.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B114" t="n" s="150">
-        <v>0.7744710186718347</v>
+        <v>0.6117407227935575</v>
       </c>
       <c r="C114" t="n" s="151">
-        <v>0.33599966761122724</v>
+        <v>-0.7331118862687052</v>
       </c>
       <c r="D114" t="n" s="152">
-        <v>-0.11051255328776674</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E114" t="n" s="153">
-        <v>0.6054282939846205</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="F114" t="n" s="154">
-        <v>1.406818292763501</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="G114" t="n" s="155">
-        <v>2.1129633750384773</v>
+        <v>-0.5874012181606069</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="149">
-        <v>10187.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B115" t="n" s="150">
-        <v>0.5363092399507949</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="C115" t="n" s="151">
-        <v>0.9091344729335656</v>
+        <v>0.33599966761122724</v>
       </c>
       <c r="D115" t="n" s="152">
-        <v>1.6864194200065388</v>
+        <v>-0.11051255328776674</v>
       </c>
       <c r="E115" t="n" s="153">
-        <v>0.4320423626399933</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="F115" t="n" s="154">
-        <v>1.65803832991597</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="G115" t="n" s="155">
-        <v>1.1151835345242138</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="149">
-        <v>10188.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B116" t="n" s="150">
-        <v>0.8297537869845696</v>
+        <v>0.5363092399507949</v>
       </c>
       <c r="C116" t="n" s="151">
-        <v>-0.592529342961754</v>
+        <v>0.9091344729335656</v>
       </c>
       <c r="D116" t="n" s="152">
-        <v>-0.9440135863889301</v>
+        <v>1.6864194200065388</v>
       </c>
       <c r="E116" t="n" s="153">
-        <v>-0.23096919107500577</v>
+        <v>0.4320423626399933</v>
       </c>
       <c r="F116" t="n" s="154">
-        <v>0.3721177544727732</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="G116" t="n" s="155">
-        <v>-0.8230168399103068</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n" s="149">
-        <v>10189.0</v>
+        <v>10188.0</v>
       </c>
       <c r="B117" t="n" s="150">
-        <v>0.04638802440381301</v>
+        <v>0.8297537869845696</v>
       </c>
       <c r="C117" t="n" s="151">
-        <v>-0.4949336434720333</v>
+        <v>-0.592529342961754</v>
       </c>
       <c r="D117" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>-0.9440135863889301</v>
       </c>
       <c r="E117" t="n" s="153">
-        <v>-0.11298912178826864</v>
+        <v>-0.23096919107500577</v>
       </c>
       <c r="F117" t="n" s="154">
-        <v>1.65803832991597</v>
+        <v>0.3721177544727732</v>
       </c>
       <c r="G117" t="n" s="155">
-        <v>0.5810457503364718</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n" s="149">
-        <v>10191.0</v>
+        <v>10189.0</v>
       </c>
       <c r="B118" t="n" s="150">
-        <v>0.29528105474686206</v>
+        <v>0.04638802440381301</v>
       </c>
       <c r="C118" t="n" s="151">
-        <v>-0.09733600110218255</v>
+        <v>-0.4949336434720333</v>
       </c>
       <c r="D118" t="n" s="152">
-        <v>0.7735477566344608</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E118" t="n" s="153">
         <v>-0.11298912178826864</v>
       </c>
       <c r="F118" t="n" s="154">
-        <v>-0.007369671226134078</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="G118" t="n" s="155">
-        <v>-1.0572723104810566</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="149">
-        <v>10192.0</v>
+        <v>10191.0</v>
       </c>
       <c r="B119" t="n" s="150">
-        <v>0.6023079138440499</v>
+        <v>0.29528105474686206</v>
       </c>
       <c r="C119" t="n" s="151">
-        <v>0.14303845958547945</v>
+        <v>-0.09733600110218255</v>
       </c>
       <c r="D119" t="n" s="152">
-        <v>1.2808857647983833</v>
+        <v>0.7735477566344608</v>
       </c>
       <c r="E119" t="n" s="153">
-        <v>-0.5650898958490881</v>
+        <v>-0.11298912178826864</v>
       </c>
       <c r="F119" t="n" s="154">
-        <v>-0.9136302798736785</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="G119" t="n" s="155">
         <v>-1.0572723104810566</v>
@@ -9325,622 +9322,668 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="149">
-        <v>10193.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B120" t="n" s="150">
-        <v>0.4092911304004456</v>
+        <v>0.6023079138440499</v>
       </c>
       <c r="C120" t="n" s="151">
-        <v>-0.333853067990735</v>
+        <v>0.14303845958547945</v>
       </c>
       <c r="D120" t="n" s="152">
-        <v>0.04532479257032093</v>
+        <v>1.2808857647983833</v>
       </c>
       <c r="E120" t="n" s="153">
         <v>-0.5650898958490881</v>
       </c>
       <c r="F120" t="n" s="154">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="G120" t="n" s="155">
-        <v>-0.8230168399103068</v>
+        <v>-1.0572723104810566</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n" s="149">
-        <v>10195.0</v>
+        <v>10193.0</v>
       </c>
       <c r="B121" t="n" s="150">
-        <v>0.4770354022576471</v>
+        <v>0.4092911304004456</v>
       </c>
       <c r="C121" t="n" s="151">
-        <v>0.28829891230944166</v>
+        <v>-0.333853067990735</v>
       </c>
       <c r="D121" t="n" s="152">
-        <v>0.48203349533710915</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="E121" t="n" s="153">
-        <v>-0.4561855465861614</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="F121" t="n" s="154">
-        <v>-0.9136302798736788</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="G121" t="n" s="155">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n" s="149">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B122" t="n" s="150">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="C122" t="n" s="151">
-        <v>0.008114607330584278</v>
+        <v>0.28829891230944166</v>
       </c>
       <c r="D122" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
       <c r="E122" t="n" s="153">
-        <v>-0.6724647283674472</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="F122" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G122" t="n" s="155">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="149">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B123" t="n" s="150">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="C123" t="n" s="151">
-        <v>0.4666838297954899</v>
+        <v>0.008114607330584278</v>
       </c>
       <c r="D123" t="n" s="152">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E123" t="n" s="153">
-        <v>1.4951814648985664</v>
+        <v>-0.6724647283674472</v>
       </c>
       <c r="F123" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G123" t="n" s="155">
-        <v>-0.587401218160607</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="149">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B124" t="n" s="150">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="C124" t="n" s="151">
-        <v>1.2184175744803527</v>
+        <v>0.4666838297954899</v>
       </c>
       <c r="D124" t="n" s="152">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="E124" t="n" s="153">
-        <v>1.7454889568746412</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="F124" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G124" t="n" s="155">
-        <v>2.1129633750384773</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n" s="149">
-        <v>10199.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B125" t="n" s="150">
-        <v>0.4773203224855433</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="C125" t="n" s="151">
-        <v>-0.10207539477021621</v>
+        <v>1.2184175744803527</v>
       </c>
       <c r="D125" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>1.646504990094715</v>
       </c>
       <c r="E125" t="n" s="153">
         <v>1.7454889568746412</v>
       </c>
       <c r="F125" t="n" s="154">
-        <v>1.276931514799406</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="G125" t="n" s="155">
-        <v>-0.8230168399103068</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n" s="149">
-        <v>10201.0</v>
+        <v>10199.0</v>
       </c>
       <c r="B126" t="n" s="150">
-        <v>0.1736163319851855</v>
+        <v>0.4773203224855433</v>
       </c>
       <c r="C126" t="n" s="151">
-        <v>0.8019489381162106</v>
+        <v>-0.10207539477021621</v>
       </c>
       <c r="D126" t="n" s="152">
-        <v>1.4951617995718107</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E126" t="n" s="153">
-        <v>0.27922605818079327</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="F126" t="n" s="154">
-        <v>0.8224933277993178</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="G126" t="n" s="155">
-        <v>1.8670095161405151</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="149">
-        <v>10202.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B127" t="n" s="150">
-        <v>0.5809977278311512</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="C127" t="n" s="151">
-        <v>-1.1109589850467905</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="D127" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="E127" t="n" s="153">
-        <v>-1.2104795319559272</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="F127" t="n" s="154">
-        <v>2.4262382357267374</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="G127" t="n" s="155">
-        <v>1.5139624552773951</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n" s="149">
-        <v>10203.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B128" t="n" s="150">
-        <v>0.3192426882839674</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="C128" t="n" s="151">
-        <v>0.2189999017361688</v>
+        <v>0.8019489381162106</v>
       </c>
       <c r="D128" t="n" s="152">
-        <v>-0.7897528725203661</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="E128" t="n" s="153">
-        <v>1.60499198206012</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="F128" t="n" s="154">
-        <v>-0.007369671226134189</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="G128" t="n" s="155">
-        <v>-0.8230168399103068</v>
+        <v>1.8670095161405151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="149">
-        <v>10204.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B129" t="n" s="150">
-        <v>-0.024963847923433036</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="C129" t="n" s="151">
-        <v>0.8112171488100235</v>
+        <v>-1.1109589850467905</v>
       </c>
       <c r="D129" t="n" s="152">
-        <v>1.9117264102869815</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E129" t="n" s="153">
-        <v>0.6054282939846205</v>
+        <v>-1.2104795319559272</v>
       </c>
       <c r="F129" t="n" s="154">
-        <v>-0.9136302798736791</v>
+        <v>2.4262382357267374</v>
       </c>
       <c r="G129" t="n" s="155">
-        <v>0.21371742061314003</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n" s="149">
-        <v>10206.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B130" t="n" s="150">
-        <v>0.16036616228342887</v>
+        <v>0.3192426882839674</v>
       </c>
       <c r="C130" t="n" s="151">
-        <v>-0.23339570282962474</v>
+        <v>0.2189999017361688</v>
       </c>
       <c r="D130" t="n" s="152">
-        <v>-0.2748557234267931</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="E130" t="n" s="153">
-        <v>1.0818912275643542</v>
+        <v>1.60499198206012</v>
       </c>
       <c r="F130" t="n" s="154">
-        <v>1.65803832991597</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="G130" t="n" s="155">
-        <v>-0.08257998554008988</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n" s="149">
-        <v>10208.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B131" t="n" s="150">
-        <v>0.6197193432307015</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="C131" t="n" s="151">
-        <v>0.8165526685947714</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="D131" t="n" s="152">
-        <v>1.4951617995718105</v>
+        <v>1.9117264102869815</v>
       </c>
       <c r="E131" t="n" s="153">
-        <v>0.1399511423221378</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="F131" t="n" s="154">
-        <v>0.624803490026419</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="G131" t="n" s="155">
-        <v>1.5139624552773951</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n" s="149">
-        <v>10209.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B132" t="n" s="150">
-        <v>0.8241600424703993</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="C132" t="n" s="151">
-        <v>-0.2328161539268661</v>
+        <v>-0.23339570282962474</v>
       </c>
       <c r="D132" t="n" s="152">
-        <v>-1.4355957758372622</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="E132" t="n" s="153">
-        <v>-1.3020766723778172</v>
+        <v>1.0818912275643542</v>
       </c>
       <c r="F132" t="n" s="154">
-        <v>-0.9136302798736788</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="G132" t="n" s="155">
-        <v>2.1129633750384773</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n" s="149">
-        <v>10210.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B133" t="n" s="150">
-        <v>0.45823897387483636</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="C133" t="n" s="151">
-        <v>-0.9025119136659654</v>
+        <v>0.8165526685947714</v>
       </c>
       <c r="D133" t="n" s="152">
-        <v>-1.2095717428674873</v>
+        <v>1.4951617995718105</v>
       </c>
       <c r="E133" t="n" s="153">
-        <v>-1.4411884156504111</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="F133" t="n" s="154">
-        <v>2.074471030670177</v>
+        <v>0.624803490026419</v>
       </c>
       <c r="G133" t="n" s="155">
-        <v>1.1151835345242138</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n" s="149">
-        <v>10213.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B134" t="n" s="150">
-        <v>0.34235911521372075</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="C134" t="n" s="151">
-        <v>-0.18410762009178533</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="D134" t="n" s="152">
-        <v>0.6258755079433425</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="E134" t="n" s="153">
-        <v>-0.4561855465861614</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="F134" t="n" s="154">
-        <v>-0.9136302798736791</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="G134" t="n" s="155">
-        <v>-1.439574674914235</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n" s="149">
-        <v>10214.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B135" t="n" s="150">
-        <v>0.20541005082214986</v>
+        <v>0.45823897387483636</v>
       </c>
       <c r="C135" t="n" s="151">
-        <v>-1.1360680709159172</v>
+        <v>-0.9025119136659654</v>
       </c>
       <c r="D135" t="n" s="152">
-        <v>-1.5404013326984634</v>
+        <v>-1.2095717428674873</v>
       </c>
       <c r="E135" t="n" s="153">
-        <v>-0.8853012149884174</v>
+        <v>-1.4411884156504111</v>
       </c>
       <c r="F135" t="n" s="154">
-        <v>0.8224933277993178</v>
+        <v>2.074471030670177</v>
       </c>
       <c r="G135" t="n" s="155">
-        <v>-1.2960764081774698</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n" s="149">
-        <v>10216.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B136" t="n" s="150">
-        <v>0.9414417956731057</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="C136" t="n" s="151">
-        <v>0.36156332804054137</v>
+        <v>-0.18410762009178533</v>
       </c>
       <c r="D136" t="n" s="152">
-        <v>0.04532479257032096</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="E136" t="n" s="153">
-        <v>0.8125130980292388</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="F136" t="n" s="154">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="G136" t="n" s="155">
-        <v>0.5796993919154849</v>
+        <v>-1.439574674914235</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n" s="149">
-        <v>10217.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B137" t="n" s="150">
-        <v>0.7332629222565488</v>
+        <v>0.20541005082214986</v>
       </c>
       <c r="C137" t="n" s="151">
-        <v>0.34555454321080625</v>
+        <v>-1.1360680709159172</v>
       </c>
       <c r="D137" t="n" s="152">
-        <v>-0.9440135863889301</v>
+        <v>-1.5404013326984634</v>
       </c>
       <c r="E137" t="n" s="153">
-        <v>1.4951814648985664</v>
+        <v>-0.8853012149884174</v>
       </c>
       <c r="F137" t="n" s="154">
-        <v>-0.9136302798736788</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="G137" t="n" s="155">
-        <v>-0.08257998554008972</v>
+        <v>-1.2960764081774698</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n" s="149">
-        <v>10218.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B138" t="n" s="150">
-        <v>0.3359920405213156</v>
+        <v>0.9414417956731057</v>
       </c>
       <c r="C138" t="n" s="151">
-        <v>-0.5982535009893035</v>
+        <v>0.36156332804054137</v>
       </c>
       <c r="D138" t="n" s="152">
-        <v>-1.3261001130049008</v>
+        <v>0.04532479257032096</v>
       </c>
       <c r="E138" t="n" s="153">
-        <v>0.010078688627185084</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="F138" t="n" s="154">
-        <v>1.65803832991597</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="G138" t="n" s="155">
-        <v>0.5810457503364718</v>
+        <v>0.5796993919154849</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n" s="149">
-        <v>10219.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B139" t="n" s="150">
-        <v>0.5034537644515523</v>
+        <v>0.7332629222565488</v>
       </c>
       <c r="C139" t="n" s="151">
-        <v>-0.48046357674448575</v>
+        <v>0.34555454321080625</v>
       </c>
       <c r="D139" t="n" s="152">
-        <v>-1.083222632087991</v>
+        <v>-0.9440135863889301</v>
       </c>
       <c r="E139" t="n" s="153">
-        <v>-0.4561855465861614</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="F139" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G139" t="n" s="155">
-        <v>-1.2960764081774698</v>
+        <v>-0.08257998554008972</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n" s="149">
-        <v>10220.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B140" t="n" s="150">
-        <v>0.3937723028891714</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="C140" t="n" s="151">
-        <v>0.64143407661485</v>
+        <v>-0.5982535009893035</v>
       </c>
       <c r="D140" t="n" s="152">
-        <v>0.6258755079433423</v>
+        <v>-1.3261001130049008</v>
       </c>
       <c r="E140" t="n" s="153">
-        <v>0.8125130980292387</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="F140" t="n" s="154">
-        <v>-0.9136302798736785</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="G140" t="n" s="155">
-        <v>0.21371742061314003</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n" s="149">
-        <v>10221.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B141" t="n" s="150">
-        <v>0.45629679199508744</v>
+        <v>0.5034537644515523</v>
       </c>
       <c r="C141" t="n" s="151">
-        <v>0.3074747488526356</v>
+        <v>-0.48046357674448575</v>
       </c>
       <c r="D141" t="n" s="152">
-        <v>-0.2748557234267931</v>
+        <v>-1.083222632087991</v>
       </c>
       <c r="E141" t="n" s="153">
-        <v>0.010078688627185084</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="F141" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G141" t="n" s="155">
-        <v>0.5810457503364718</v>
+        <v>-1.2960764081774698</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n" s="149">
-        <v>10223.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B142" t="n" s="150">
-        <v>0.5860505124924433</v>
+        <v>0.3937723028891714</v>
       </c>
       <c r="C142" t="n" s="151">
-        <v>0.492799217216467</v>
+        <v>0.64143407661485</v>
       </c>
       <c r="D142" t="n" s="152">
-        <v>1.4951617995718107</v>
+        <v>0.6258755079433423</v>
       </c>
       <c r="E142" t="n" s="153">
-        <v>0.8125130980292388</v>
+        <v>0.8125130980292387</v>
       </c>
       <c r="F142" t="n" s="154">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="G142" t="n" s="155">
-        <v>-0.34384769996131537</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="149">
-        <v>10232.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B143" t="n" s="150">
-        <v>0.2994892197097739</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="C143" t="n" s="151">
-        <v>-0.17005362149882175</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="D143" t="n" s="152">
-        <v>0.6258755079433425</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="E143" t="n" s="153">
-        <v>-0.11298912178826864</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="F143" t="n" s="154">
-        <v>1.406818292763501</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="G143" t="n" s="155">
-        <v>0.21371742061314003</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n" s="149">
-        <v>10237.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B144" t="n" s="150">
-        <v>0.10586023279338319</v>
+        <v>0.5860505124924433</v>
       </c>
       <c r="C144" t="n" s="151">
-        <v>-0.022059637352467965</v>
+        <v>0.492799217216467</v>
       </c>
       <c r="D144" t="n" s="152">
-        <v>0.04532479257032096</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="E144" t="n" s="153">
-        <v>0.010078688627185084</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="F144" t="n" s="154">
-        <v>-0.9136302798736788</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="G144" t="n" s="155">
-        <v>-1.0572723104810566</v>
+        <v>-0.34384769996131537</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n" s="149">
-        <v>10238.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B145" t="n" s="150">
-        <v>0.32778389637104416</v>
+        <v>0.2994892197097739</v>
       </c>
       <c r="C145" t="n" s="151">
-        <v>-1.106203408558609</v>
+        <v>-0.17005362149882175</v>
       </c>
       <c r="D145" t="n" s="152">
-        <v>-0.9440135863889301</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="E145" t="n" s="153">
-        <v>-1.3237490316352398</v>
+        <v>-0.11298912178826864</v>
       </c>
       <c r="F145" t="n" s="154">
-        <v>2.074471030670177</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="G145" t="n" s="155">
-        <v>-0.08257998554008983</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n" s="149">
-        <v>10240.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B146" t="n" s="150">
-        <v>0.8546964096694867</v>
+        <v>0.10586023279338319</v>
       </c>
       <c r="C146" t="n" s="151">
-        <v>-0.791089338425403</v>
+        <v>-0.022059637352467965</v>
       </c>
       <c r="D146" t="n" s="152">
-        <v>-1.2095717428674873</v>
+        <v>0.04532479257032096</v>
       </c>
       <c r="E146" t="n" s="153">
-        <v>-1.3020766723778172</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="F146" t="n" s="154">
         <v>-0.9136302798736788</v>
       </c>
       <c r="G146" t="n" s="155">
+        <v>-1.0572723104810566</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="149">
+        <v>10238.0</v>
+      </c>
+      <c r="B147" t="n" s="150">
+        <v>0.32778389637104416</v>
+      </c>
+      <c r="C147" t="n" s="151">
+        <v>-1.106203408558609</v>
+      </c>
+      <c r="D147" t="n" s="152">
+        <v>-0.9440135863889301</v>
+      </c>
+      <c r="E147" t="n" s="153">
+        <v>-1.3237490316352398</v>
+      </c>
+      <c r="F147" t="n" s="154">
+        <v>2.074471030670177</v>
+      </c>
+      <c r="G147" t="n" s="155">
+        <v>-0.08257998554008983</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="149">
+        <v>10240.0</v>
+      </c>
+      <c r="B148" t="n" s="150">
+        <v>0.8546964096694867</v>
+      </c>
+      <c r="C148" t="n" s="151">
+        <v>-0.791089338425403</v>
+      </c>
+      <c r="D148" t="n" s="152">
+        <v>-1.2095717428674873</v>
+      </c>
+      <c r="E148" t="n" s="153">
+        <v>-1.3020766723778172</v>
+      </c>
+      <c r="F148" t="n" s="154">
+        <v>-0.9136302798736788</v>
+      </c>
+      <c r="G148" t="n" s="155">
         <v>-0.8230168399103068</v>
       </c>
     </row>
@@ -11993,19 +12036,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="347">
-        <v>-0.16210670314637485</v>
+        <v>-0.2</v>
       </c>
       <c r="D6" t="n" s="348">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
       <c r="E6" t="n" s="349">
-        <v>-0.21385788024289842</v>
+        <v>-0.20300417137459412</v>
       </c>
       <c r="F6" t="n" s="350">
-        <v>-0.06440276889301862</v>
+        <v>-0.02215110711572815</v>
       </c>
       <c r="G6" t="n" s="351">
-        <v>0.06582938367569847</v>
+        <v>0.0858413642525379</v>
       </c>
     </row>
     <row r="7">
@@ -12013,22 +12056,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="346">
-        <v>-0.16210670314637485</v>
+        <v>-0.2</v>
       </c>
       <c r="C7" t="n" s="347">
         <v>1.0</v>
       </c>
       <c r="D7" t="n" s="348">
-        <v>0.7294140410845791</v>
+        <v>0.7447571902278506</v>
       </c>
       <c r="E7" t="n" s="349">
-        <v>0.5215251113220963</v>
+        <v>0.5213759963681085</v>
       </c>
       <c r="F7" t="n" s="350">
-        <v>-0.5086078127172983</v>
+        <v>-0.5216429732041896</v>
       </c>
       <c r="G7" t="n" s="351">
-        <v>0.3398593115225693</v>
+        <v>0.2975936703261233</v>
       </c>
     </row>
     <row r="8">
@@ -12036,22 +12079,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="346">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
       <c r="C8" t="n" s="347">
-        <v>0.7294140410845791</v>
+        <v>0.7447571902278506</v>
       </c>
       <c r="D8" t="n" s="348">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n" s="349">
-        <v>0.37755985069349046</v>
+        <v>0.3570110701107011</v>
       </c>
       <c r="F8" t="n" s="350">
-        <v>-0.38774496589503604</v>
+        <v>-0.40952009395240185</v>
       </c>
       <c r="G8" t="n" s="351">
-        <v>-0.012136214158754186</v>
+        <v>-0.03959239421038413</v>
       </c>
     </row>
     <row r="9">
@@ -12059,22 +12102,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="346">
-        <v>-0.21385788024289842</v>
+        <v>-0.20300417137459412</v>
       </c>
       <c r="C9" t="n" s="347">
-        <v>0.5215251113220963</v>
+        <v>0.5213759963681085</v>
       </c>
       <c r="D9" t="n" s="348">
-        <v>0.37755985069349046</v>
+        <v>0.3570110701107011</v>
       </c>
       <c r="E9" t="n" s="349">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="350">
-        <v>0.08169864182951395</v>
+        <v>0.08296852056375113</v>
       </c>
       <c r="G9" t="n" s="351">
-        <v>-0.0935739023595523</v>
+        <v>-0.07021463660747809</v>
       </c>
     </row>
     <row r="10">
@@ -12082,22 +12125,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="346">
-        <v>-0.06440276889301862</v>
+        <v>-0.02215110711572815</v>
       </c>
       <c r="C10" t="n" s="347">
-        <v>-0.5086078127172983</v>
+        <v>-0.5216429732041896</v>
       </c>
       <c r="D10" t="n" s="348">
-        <v>-0.38774496589503604</v>
+        <v>-0.40952009395240185</v>
       </c>
       <c r="E10" t="n" s="349">
-        <v>0.08169864182951395</v>
+        <v>0.08296852056375113</v>
       </c>
       <c r="F10" t="n" s="350">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n" s="351">
-        <v>0.13841390621844882</v>
+        <v>0.16565538134856167</v>
       </c>
     </row>
     <row r="11">
@@ -12105,19 +12148,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="346">
-        <v>0.06582938367569847</v>
+        <v>0.0858413642525379</v>
       </c>
       <c r="C11" t="n" s="347">
-        <v>0.3398593115225693</v>
+        <v>0.2975936703261233</v>
       </c>
       <c r="D11" t="n" s="348">
-        <v>-0.012136214158754186</v>
+        <v>-0.03959239421038413</v>
       </c>
       <c r="E11" t="n" s="349">
-        <v>-0.0935739023595523</v>
+        <v>-0.07021463660747809</v>
       </c>
       <c r="F11" t="n" s="350">
-        <v>0.13841390621844882</v>
+        <v>0.16565538134856167</v>
       </c>
       <c r="G11" t="n" s="351">
         <v>1.0</v>
@@ -12167,19 +12210,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="371">
-        <v>-0.8048023448851032</v>
+        <v>-1.0206207261596576</v>
       </c>
       <c r="D16" t="n" s="372">
-        <v>-1.6153352605805222</v>
+        <v>-1.8426571003165402</v>
       </c>
       <c r="E16" t="n" s="373">
-        <v>-1.0724978367899596</v>
+        <v>-1.0366051819205888</v>
       </c>
       <c r="F16" t="n" s="374">
-        <v>-0.31616420469427087</v>
+        <v>-0.1107827178771955</v>
       </c>
       <c r="G16" t="n" s="375">
-        <v>0.3231978506975258</v>
+        <v>0.4307969714279243</v>
       </c>
     </row>
     <row r="17">
@@ -12187,22 +12230,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="370">
-        <v>-0.8048023448851032</v>
+        <v>-1.0206207261596576</v>
       </c>
       <c r="C17" t="e" s="371">
         <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="372">
-        <v>5.223692712259618</v>
+        <v>5.580080347091497</v>
       </c>
       <c r="E17" t="n" s="373">
-        <v>2.994413058783752</v>
+        <v>3.0549599393720674</v>
       </c>
       <c r="F17" t="n" s="374">
-        <v>-2.8939188459329386</v>
+        <v>-3.057108866088792</v>
       </c>
       <c r="G17" t="n" s="375">
-        <v>1.7703410668567523</v>
+        <v>1.5585836879408825</v>
       </c>
     </row>
     <row r="18">
@@ -12210,22 +12253,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="370">
-        <v>-1.6153352605805222</v>
+        <v>-1.8426571003165402</v>
       </c>
       <c r="C18" t="n" s="371">
-        <v>5.223692712259618</v>
-      </c>
-      <c r="D18" t="n" s="372">
-        <v>3.287649480356625E8</v>
+        <v>5.580080347091497</v>
+      </c>
+      <c r="D18" t="e" s="372">
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="373">
-        <v>1.9975027646975334</v>
+        <v>1.9109892497470646</v>
       </c>
       <c r="F18" t="n" s="374">
-        <v>-2.0607759450163283</v>
+        <v>-2.244434951562794</v>
       </c>
       <c r="G18" t="n" s="375">
-        <v>-0.05945944317956464</v>
+        <v>-0.19811731210931374</v>
       </c>
     </row>
     <row r="19">
@@ -12233,22 +12276,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="370">
-        <v>-1.0724978367899596</v>
+        <v>-1.0366051819205888</v>
       </c>
       <c r="C19" t="n" s="371">
-        <v>2.994413058783752</v>
+        <v>3.0549599393720674</v>
       </c>
       <c r="D19" t="n" s="372">
-        <v>1.9975027646975334</v>
+        <v>1.9109892497470646</v>
       </c>
       <c r="E19" t="e" s="373">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="374">
-        <v>0.4015824288974886</v>
+        <v>0.41627785872165357</v>
       </c>
       <c r="G19" t="n" s="375">
-        <v>-0.4604368700449023</v>
+        <v>-0.35194180827021243</v>
       </c>
     </row>
     <row r="20">
@@ -12256,22 +12299,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="370">
-        <v>-0.31616420469427087</v>
+        <v>-0.1107827178771955</v>
       </c>
       <c r="C20" t="n" s="371">
-        <v>-2.8939188459329386</v>
+        <v>-3.057108866088792</v>
       </c>
       <c r="D20" t="n" s="372">
-        <v>-2.0607759450163283</v>
+        <v>-2.244434951562794</v>
       </c>
       <c r="E20" t="n" s="373">
-        <v>0.4015824288974886</v>
-      </c>
-      <c r="F20" t="n" s="374">
-        <v>3.287649480356625E8</v>
+        <v>0.41627785872165357</v>
+      </c>
+      <c r="F20" t="e" s="374">
+        <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="375">
-        <v>0.6846772687627937</v>
+        <v>0.8398809520307127</v>
       </c>
     </row>
     <row r="21">
@@ -12279,19 +12322,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="370">
-        <v>0.3231978506975258</v>
+        <v>0.4307969714279243</v>
       </c>
       <c r="C21" t="n" s="371">
-        <v>1.7703410668567523</v>
+        <v>1.5585836879408825</v>
       </c>
       <c r="D21" t="n" s="372">
-        <v>-0.05945944317956464</v>
+        <v>-0.19811731210931374</v>
       </c>
       <c r="E21" t="n" s="373">
-        <v>-0.4604368700449023</v>
+        <v>-0.35194180827021243</v>
       </c>
       <c r="F21" t="n" s="374">
-        <v>0.6846772687627937</v>
+        <v>0.8398809520307127</v>
       </c>
       <c r="G21" t="e" s="375">
         <v>#DIV/0!</v>
@@ -12344,7 +12387,7 @@
         <v>1.0</v>
       </c>
       <c r="D26" t="n" s="396">
-        <v>1.0</v>
+        <v>0.772694659831238</v>
       </c>
       <c r="E26" t="n" s="397">
         <v>1.0</v>
@@ -12361,22 +12404,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="394">
-        <v>0.4288348747613344</v>
+        <v>0.3172097907401324</v>
       </c>
       <c r="C27" t="n" s="395">
         <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="396">
-        <v>3.5415069914207455E-4</v>
+        <v>1.2565573861087704E-4</v>
       </c>
       <c r="E27" t="n" s="397">
-        <v>0.08804094655727182</v>
+        <v>0.07366515722610084</v>
       </c>
       <c r="F27" t="n" s="398">
-        <v>0.1036527689056455</v>
+        <v>0.07366515722610084</v>
       </c>
       <c r="G27" t="n" s="399">
-        <v>0.8937389033361343</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -12384,19 +12427,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="394">
-        <v>0.11930949602744716</v>
+        <v>0.0772694659831238</v>
       </c>
       <c r="C28" t="n" s="395">
-        <v>2.3610046609471636E-5</v>
+        <v>8.377049240725136E-6</v>
       </c>
       <c r="D28" t="n" s="396">
-        <v>2.3152321882724186E-189</v>
+        <v>-0.0</v>
       </c>
       <c r="E28" t="n" s="397">
-        <v>0.6295035638586821</v>
+        <v>0.7429124100797809</v>
       </c>
       <c r="F28" t="n" s="398">
-        <v>0.6038495158884174</v>
+        <v>0.4067829131421603</v>
       </c>
       <c r="G28" t="n" s="399">
         <v>1.0</v>
@@ -12407,13 +12450,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>0.29416284035294077</v>
+        <v>0.30984308760571905</v>
       </c>
       <c r="C29" t="n" s="395">
-        <v>0.00628863903980513</v>
+        <v>0.00528919653754106</v>
       </c>
       <c r="D29" t="n" s="396">
-        <v>0.05722759671442565</v>
+        <v>0.06753749182543463</v>
       </c>
       <c r="E29" t="n" s="397">
         <v>-0.0</v>
@@ -12430,19 +12473,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>0.7546112099191463</v>
+        <v>0.9126732413229437</v>
       </c>
       <c r="C30" t="n" s="395">
-        <v>0.007973289915818884</v>
+        <v>0.0052617969447214885</v>
       </c>
       <c r="D30" t="n" s="396">
-        <v>0.05032079299070145</v>
+        <v>0.03389857609518002</v>
       </c>
       <c r="E30" t="n" s="397">
-        <v>0.691544939486639</v>
+        <v>0.6807588548782636</v>
       </c>
       <c r="F30" t="n" s="398">
-        <v>2.3152321882724186E-189</v>
+        <v>-0.0</v>
       </c>
       <c r="G30" t="n" s="399">
         <v>1.0</v>
@@ -12453,19 +12496,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>0.7493446138675678</v>
+        <v>0.6703075863339429</v>
       </c>
       <c r="C31" t="n" s="395">
-        <v>0.08937389033361343</v>
+        <v>0.1316654710441512</v>
       </c>
       <c r="D31" t="n" s="396">
-        <v>0.9530785076249144</v>
+        <v>0.8445554770049988</v>
       </c>
       <c r="E31" t="n" s="397">
-        <v>0.6493474077660268</v>
+        <v>0.7278312598337393</v>
       </c>
       <c r="F31" t="n" s="398">
-        <v>0.5001068586874973</v>
+        <v>0.4089356403757739</v>
       </c>
       <c r="G31" t="n" s="399">
         <v>-0.0</v>
@@ -12506,16 +12549,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="418">
-        <v>-0.5169952947399467</v>
+        <v>-0.5390450373653959</v>
       </c>
       <c r="C36" t="n" s="419">
-        <v>-0.16210670314637485</v>
+        <v>-0.2</v>
       </c>
       <c r="D36" t="n" s="420">
-        <v>0.24033653026805135</v>
+        <v>0.19482089828724536</v>
       </c>
       <c r="E36" t="n" s="421">
-        <v>0.4288348747613344</v>
+        <v>0.3172097907401324</v>
       </c>
     </row>
     <row r="37">
@@ -12523,16 +12566,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="418">
-        <v>-0.6247202627844589</v>
+        <v>-0.6415111231952993</v>
       </c>
       <c r="C37" t="n" s="419">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
       <c r="D37" t="n" s="420">
-        <v>0.0844502480355882</v>
+        <v>0.0393941082250077</v>
       </c>
       <c r="E37" t="n" s="421">
-        <v>0.11930949602744716</v>
+        <v>0.0772694659831238</v>
       </c>
     </row>
     <row r="38">
@@ -12540,16 +12583,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="418">
-        <v>-0.5552166365214597</v>
+        <v>-0.5412627371637615</v>
       </c>
       <c r="C38" t="n" s="419">
-        <v>-0.21385788024289842</v>
+        <v>-0.20300417137459412</v>
       </c>
       <c r="D38" t="n" s="420">
-        <v>0.18916408301549625</v>
+        <v>0.19180660371856817</v>
       </c>
       <c r="E38" t="n" s="421">
-        <v>0.29416284035294077</v>
+        <v>0.30984308760571905</v>
       </c>
     </row>
     <row r="39">
@@ -12557,16 +12600,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="418">
-        <v>-0.4407592896916058</v>
+        <v>-0.39880801475014205</v>
       </c>
       <c r="C39" t="n" s="419">
-        <v>-0.06440276889301862</v>
+        <v>-0.02215110711572815</v>
       </c>
       <c r="D39" t="n" s="420">
-        <v>0.33121175648180284</v>
+        <v>0.36090082445358235</v>
       </c>
       <c r="E39" t="n" s="421">
-        <v>0.7546112099191463</v>
+        <v>0.9126732413229437</v>
       </c>
     </row>
     <row r="40">
@@ -12574,16 +12617,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="418">
-        <v>-0.32993562984795405</v>
+        <v>-0.3040923737619694</v>
       </c>
       <c r="C40" t="n" s="419">
-        <v>0.06582938367569847</v>
+        <v>0.0858413642525379</v>
       </c>
       <c r="D40" t="n" s="420">
-        <v>0.44191292334304155</v>
+        <v>0.4511387696238074</v>
       </c>
       <c r="E40" t="n" s="421">
-        <v>0.7493446138675678</v>
+        <v>0.6703075863339429</v>
       </c>
     </row>
     <row r="41">
@@ -12591,16 +12634,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="418">
-        <v>0.4767681474116806</v>
+        <v>0.5087202918187402</v>
       </c>
       <c r="C41" t="n" s="419">
-        <v>0.7294140410845791</v>
+        <v>0.7447571902278506</v>
       </c>
       <c r="D41" t="n" s="420">
-        <v>0.8707455748383753</v>
+        <v>0.8766603734975226</v>
       </c>
       <c r="E41" t="n" s="421">
-        <v>2.3610046609471636E-5</v>
+        <v>8.377049240725136E-6</v>
       </c>
     </row>
     <row r="42">
@@ -12608,16 +12651,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="418">
-        <v>0.16813970743691486</v>
+        <v>0.17629049439298203</v>
       </c>
       <c r="C42" t="n" s="419">
-        <v>0.5215251113220963</v>
+        <v>0.5213759963681085</v>
       </c>
       <c r="D42" t="n" s="420">
-        <v>0.7561286552277179</v>
+        <v>0.752330583313684</v>
       </c>
       <c r="E42" t="n" s="421">
-        <v>0.00628863903980513</v>
+        <v>0.00528919653754106</v>
       </c>
     </row>
     <row r="43">
@@ -12625,16 +12668,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="418">
-        <v>-0.7484979951353573</v>
+        <v>-0.7524896921118776</v>
       </c>
       <c r="C43" t="n" s="419">
-        <v>-0.5086078127172983</v>
+        <v>-0.5216429732041896</v>
       </c>
       <c r="D43" t="n" s="420">
-        <v>-0.15100550118512746</v>
+        <v>-0.17664578699434028</v>
       </c>
       <c r="E43" t="n" s="421">
-        <v>0.007973289915818884</v>
+        <v>0.0052617969447214885</v>
       </c>
     </row>
     <row r="44">
@@ -12642,16 +12685,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="418">
-        <v>-0.05469265025385733</v>
+        <v>-0.09292969114348161</v>
       </c>
       <c r="C44" t="n" s="419">
-        <v>0.3398593115225693</v>
+        <v>0.2975936703261233</v>
       </c>
       <c r="D44" t="n" s="420">
-        <v>0.6426141992454072</v>
+        <v>0.6087628025005278</v>
       </c>
       <c r="E44" t="n" s="421">
-        <v>0.08937389033361343</v>
+        <v>0.1316654710441512</v>
       </c>
     </row>
     <row r="45">
@@ -12659,16 +12702,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="418">
-        <v>-0.011469483417280005</v>
+        <v>-0.026613532159254893</v>
       </c>
       <c r="C45" t="n" s="419">
-        <v>0.37755985069349046</v>
+        <v>0.3570110701107011</v>
       </c>
       <c r="D45" t="n" s="420">
-        <v>0.6673175692347493</v>
+        <v>0.648978629304616</v>
       </c>
       <c r="E45" t="n" s="421">
-        <v>0.05722759671442565</v>
+        <v>0.06753749182543463</v>
       </c>
     </row>
     <row r="46">
@@ -12676,16 +12719,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="418">
-        <v>-0.6738837653531774</v>
+        <v>-0.6832105429397107</v>
       </c>
       <c r="C46" t="n" s="419">
-        <v>-0.38774496589503604</v>
+        <v>-0.40952009395240185</v>
       </c>
       <c r="D46" t="n" s="420">
-        <v>-4.624901237591495E-4</v>
+        <v>-0.03494427312444866</v>
       </c>
       <c r="E46" t="n" s="421">
-        <v>0.05032079299070145</v>
+        <v>0.03389857609518002</v>
       </c>
     </row>
     <row r="47">
@@ -12693,16 +12736,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="418">
-        <v>-0.3976189519025244</v>
+        <v>-0.41338668343913093</v>
       </c>
       <c r="C47" t="n" s="419">
-        <v>-0.012136214158754186</v>
+        <v>-0.03959239421038413</v>
       </c>
       <c r="D47" t="n" s="420">
-        <v>0.37698793980454465</v>
+        <v>0.3456216788553218</v>
       </c>
       <c r="E47" t="n" s="421">
-        <v>0.9530785076249144</v>
+        <v>0.8445554770049988</v>
       </c>
     </row>
     <row r="48">
@@ -12710,16 +12753,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="418">
-        <v>-0.315642148699235</v>
+        <v>-0.3067159528450279</v>
       </c>
       <c r="C48" t="n" s="419">
-        <v>0.08169864182951395</v>
+        <v>0.08296852056375113</v>
       </c>
       <c r="D48" t="n" s="420">
-        <v>0.4546622803234225</v>
+        <v>0.4488311993167095</v>
       </c>
       <c r="E48" t="n" s="421">
-        <v>0.691544939486639</v>
+        <v>0.6807588548782636</v>
       </c>
     </row>
     <row r="49">
@@ -12727,16 +12770,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="418">
-        <v>-0.46410391564895814</v>
+        <v>-0.43852757187519403</v>
       </c>
       <c r="C49" t="n" s="419">
-        <v>-0.0935739023595523</v>
+        <v>-0.07021463660747809</v>
       </c>
       <c r="D49" t="n" s="420">
-        <v>0.30482679859615003</v>
+        <v>0.3182921736999265</v>
       </c>
       <c r="E49" t="n" s="421">
-        <v>0.6493474077660268</v>
+        <v>0.7278312598337393</v>
       </c>
     </row>
     <row r="50">
@@ -12744,16 +12787,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="418">
-        <v>-0.26304094533589867</v>
+        <v>-0.228759292732087</v>
       </c>
       <c r="C50" t="n" s="419">
-        <v>0.13841390621844882</v>
+        <v>0.16565538134856167</v>
       </c>
       <c r="D50" t="n" s="420">
-        <v>0.49901140126709853</v>
+        <v>0.5133530738450435</v>
       </c>
       <c r="E50" t="n" s="421">
-        <v>0.5001068586874973</v>
+        <v>0.4089356403757739</v>
       </c>
     </row>
     <row r="51">
@@ -13113,139 +13156,139 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="440">
-        <v>0.1736163319851855</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B71" t="n" s="441">
-        <v>0.8019489381162106</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="C71" t="n" s="442">
         <v>1.4951617995718107</v>
       </c>
       <c r="D71" t="n" s="443">
-        <v>0.27922605818079327</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E71" t="n" s="444">
-        <v>0.8224933277993178</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F71" t="n" s="445">
-        <v>1.8670095161405151</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="440">
-        <v>-0.024963847923433036</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="B72" t="n" s="441">
-        <v>0.8112171488100235</v>
+        <v>0.8019489381162106</v>
       </c>
       <c r="C72" t="n" s="442">
-        <v>1.9117264102869815</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D72" t="n" s="443">
-        <v>0.6054282939846205</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="E72" t="n" s="444">
-        <v>-0.9136302798736791</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="F72" t="n" s="445">
-        <v>0.21371742061314003</v>
+        <v>1.8670095161405151</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="440">
-        <v>0.16036616228342887</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="B73" t="n" s="441">
-        <v>-0.23339570282962474</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="C73" t="n" s="442">
-        <v>-0.2748557234267931</v>
+        <v>1.9117264102869815</v>
       </c>
       <c r="D73" t="n" s="443">
-        <v>1.0818912275643542</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="E73" t="n" s="444">
-        <v>1.65803832991597</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="F73" t="n" s="445">
-        <v>-0.08257998554008988</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="440">
-        <v>0.8241600424703993</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="B74" t="n" s="441">
-        <v>-0.2328161539268661</v>
+        <v>-0.23339570282962474</v>
       </c>
       <c r="C74" t="n" s="442">
-        <v>-1.4355957758372622</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D74" t="n" s="443">
-        <v>-1.3020766723778172</v>
+        <v>1.0818912275643542</v>
       </c>
       <c r="E74" t="n" s="444">
-        <v>-0.9136302798736788</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="F74" t="n" s="445">
-        <v>2.1129633750384773</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="440">
-        <v>0.34235911521372075</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B75" t="n" s="441">
-        <v>-0.18410762009178533</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="C75" t="n" s="442">
-        <v>0.6258755079433425</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="D75" t="n" s="443">
-        <v>-0.4561855465861614</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="E75" t="n" s="444">
-        <v>-0.9136302798736791</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F75" t="n" s="445">
-        <v>-1.439574674914235</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="440">
-        <v>0.3359920405213156</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="B76" t="n" s="441">
-        <v>-0.5982535009893035</v>
+        <v>-0.18410762009178533</v>
       </c>
       <c r="C76" t="n" s="442">
-        <v>-1.3261001130049008</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="D76" t="n" s="443">
-        <v>0.010078688627185084</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="E76" t="n" s="444">
-        <v>1.65803832991597</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="F76" t="n" s="445">
-        <v>0.5810457503364718</v>
+        <v>-1.439574674914235</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="440">
-        <v>0.45629679199508744</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="B77" t="n" s="441">
-        <v>0.3074747488526356</v>
+        <v>-0.5982535009893035</v>
       </c>
       <c r="C77" t="n" s="442">
-        <v>-0.2748557234267931</v>
+        <v>-1.3261001130049008</v>
       </c>
       <c r="D77" t="n" s="443">
         <v>0.010078688627185084</v>
       </c>
       <c r="E77" t="n" s="444">
-        <v>-0.9136302798736788</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="F77" t="n" s="445">
         <v>0.5810457503364718</v>
@@ -13253,67 +13296,82 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="440">
-        <v>0.5860505124924433</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B78" t="n" s="441">
-        <v>0.492799217216467</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="C78" t="n" s="442">
-        <v>1.4951617995718107</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D78" t="n" s="443">
-        <v>0.8125130980292388</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E78" t="n" s="444">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F78" t="n" s="445">
-        <v>-0.34384769996131537</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="440">
-        <v>0.2994892197097739</v>
+        <v>0.5860505124924433</v>
       </c>
       <c r="B79" t="n" s="441">
-        <v>-0.17005362149882175</v>
+        <v>0.492799217216467</v>
       </c>
       <c r="C79" t="n" s="442">
-        <v>0.6258755079433425</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D79" t="n" s="443">
-        <v>-0.11298912178826864</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="E79" t="n" s="444">
-        <v>1.406818292763501</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="F79" t="n" s="445">
-        <v>0.21371742061314003</v>
+        <v>-0.34384769996131537</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="440">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="B80" t="n" s="441">
+        <v>-0.17005362149882175</v>
+      </c>
+      <c r="C80" t="n" s="442">
+        <v>0.6258755079433425</v>
+      </c>
+      <c r="D80" t="n" s="443">
+        <v>-0.11298912178826864</v>
+      </c>
+      <c r="E80" t="n" s="444">
+        <v>1.406818292763501</v>
+      </c>
+      <c r="F80" t="n" s="445">
+        <v>0.21371742061314003</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="440">
         <v>0.8546964096694867</v>
       </c>
-      <c r="B80" t="n" s="441">
+      <c r="B81" t="n" s="441">
         <v>-0.791089338425403</v>
       </c>
-      <c r="C80" t="n" s="442">
+      <c r="C81" t="n" s="442">
         <v>-1.2095717428674873</v>
       </c>
-      <c r="D80" t="n" s="443">
+      <c r="D81" t="n" s="443">
         <v>-1.3020766723778172</v>
       </c>
-      <c r="E80" t="n" s="444">
+      <c r="E81" t="n" s="444">
         <v>-0.9136302798736788</v>
       </c>
-      <c r="F80" t="n" s="445">
+      <c r="F81" t="n" s="445">
         <v>-0.8230168399103068</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -13322,119 +13380,86 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="449">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="449">
         <v>58</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="463">
+    <row r="85">
+      <c r="A85" t="s" s="463">
         <v>33</v>
       </c>
-      <c r="B84" t="s" s="463">
+      <c r="B85" t="s" s="463">
         <v>37</v>
       </c>
-      <c r="C84" t="s" s="463">
+      <c r="C85" t="s" s="463">
         <v>38</v>
       </c>
-      <c r="D84" t="s" s="463">
+      <c r="D85" t="s" s="463">
         <v>39</v>
       </c>
-      <c r="E84" t="s" s="463">
+      <c r="E85" t="s" s="463">
         <v>40</v>
       </c>
-      <c r="F84" t="s" s="463">
+      <c r="F85" t="s" s="463">
         <v>41</v>
       </c>
-      <c r="G84" t="s" s="463">
+      <c r="G85" t="s" s="463">
         <v>3</v>
       </c>
-      <c r="H84" t="s" s="463">
+      <c r="H85" t="s" s="463">
         <v>4</v>
       </c>
-      <c r="I84" t="s" s="463">
+      <c r="I85" t="s" s="463">
         <v>5</v>
       </c>
-      <c r="J84" t="s" s="463">
+      <c r="J85" t="s" s="463">
         <v>6</v>
       </c>
-      <c r="K84" t="s" s="463">
+      <c r="K85" t="s" s="463">
         <v>7</v>
       </c>
-      <c r="L84" t="s" s="463">
+      <c r="L85" t="s" s="463">
         <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="464">
-        <v>10169.0</v>
-      </c>
-      <c r="B85" t="n" s="465">
-        <v>1.0377538E7</v>
-      </c>
-      <c r="C85" t="s" s="466">
-        <v>59</v>
-      </c>
-      <c r="D85" t="s" s="467">
-        <v>60</v>
-      </c>
-      <c r="E85" t="s" s="468">
-        <v>54</v>
-      </c>
-      <c r="F85" t="s" s="469">
-        <v>74</v>
-      </c>
-      <c r="G85" t="n" s="470">
-        <v>0.3438762335287266</v>
-      </c>
-      <c r="H85" t="n" s="471">
-        <v>-0.04507312831536972</v>
-      </c>
-      <c r="I85" t="n" s="472">
-        <v>0.773547756634461</v>
-      </c>
-      <c r="J85" t="n" s="473">
-        <v>-0.34506436270976193</v>
-      </c>
-      <c r="K85" t="n" s="474">
-        <v>0.8224933277993178</v>
-      </c>
-      <c r="L85" t="n" s="475">
-        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="464">
-        <v>10170.0</v>
+        <v>10169.0</v>
       </c>
       <c r="B86" t="n" s="465">
-        <v>1.0260351E7</v>
+        <v>1.0377538E7</v>
       </c>
       <c r="C86" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D86" t="s" s="467">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G86" t="n" s="470">
-        <v>0.44355069885067455</v>
+        <v>0.3438762335287266</v>
       </c>
       <c r="H86" t="n" s="471">
-        <v>0.5697381260416503</v>
+        <v>-0.04507312831536972</v>
       </c>
       <c r="I86" t="n" s="472">
-        <v>0.3390917056505436</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="J86" t="n" s="473">
-        <v>0.8125130980292388</v>
+        <v>-0.34506436270976193</v>
       </c>
       <c r="K86" t="n" s="474">
-        <v>-0.9136302798736788</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="L86" t="n" s="475">
         <v>0.21371742061314003</v>
@@ -13442,168 +13467,168 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="464">
-        <v>10174.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B87" t="n" s="465">
-        <v>1.0276852E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C87" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D87" t="s" s="467">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G87" t="n" s="470">
-        <v>0.35861364877545043</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="H87" t="n" s="471">
-        <v>0.15069702561789527</v>
+        <v>0.5697381260416503</v>
       </c>
       <c r="I87" t="n" s="472">
-        <v>0.04532479257032093</v>
+        <v>0.3390917056505436</v>
       </c>
       <c r="J87" t="n" s="473">
-        <v>-0.5650898958490881</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="K87" t="n" s="474">
-        <v>-0.007369671226134078</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L87" t="n" s="475">
-        <v>1.1151835345242138</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="464">
-        <v>10175.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B88" t="n" s="465">
-        <v>1.03107E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C88" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D88" t="s" s="467">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s" s="468">
         <v>54</v>
       </c>
       <c r="F88" t="s" s="469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G88" t="n" s="470">
-        <v>-0.024963847923433036</v>
+        <v>0.35861364877545043</v>
       </c>
       <c r="H88" t="n" s="471">
-        <v>0.8112171488100235</v>
+        <v>0.15069702561789527</v>
       </c>
       <c r="I88" t="n" s="472">
-        <v>0.773547756634461</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="J88" t="n" s="473">
-        <v>1.7454889568746412</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="K88" t="n" s="474">
-        <v>-0.9136302798736791</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="L88" t="n" s="475">
-        <v>-0.5874012181606069</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="464">
-        <v>10176.0</v>
+        <v>10175.0</v>
       </c>
       <c r="B89" t="n" s="465">
-        <v>1.0276949E7</v>
+        <v>1.03107E7</v>
       </c>
       <c r="C89" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D89" t="s" s="467">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E89" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G89" t="n" s="470">
-        <v>0.5310873221279265</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="H89" t="n" s="471">
-        <v>-0.6106220062284993</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="I89" t="n" s="472">
-        <v>-0.621765728385078</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="J89" t="n" s="473">
-        <v>0.27922605818079327</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="K89" t="n" s="474">
-        <v>1.276931514799406</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="L89" t="n" s="475">
-        <v>-0.8230168399103068</v>
+        <v>-0.5874012181606069</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="464">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B90" t="n" s="465">
-        <v>8656201.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C90" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D90" t="s" s="467">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E90" t="s" s="468">
         <v>53</v>
       </c>
       <c r="F90" t="s" s="469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G90" t="n" s="470">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H90" t="n" s="471">
-        <v>-0.07571978819468783</v>
+        <v>-0.6106220062284993</v>
       </c>
       <c r="I90" t="n" s="472">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
       <c r="J90" t="n" s="473">
         <v>0.27922605818079327</v>
       </c>
       <c r="K90" t="n" s="474">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L90" t="n" s="475">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="464">
-        <v>10183.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B91" t="n" s="465">
-        <v>1.035203E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C91" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D91" t="s" s="467">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s" s="468">
         <v>53</v>
@@ -13612,226 +13637,226 @@
         <v>75</v>
       </c>
       <c r="G91" t="n" s="470">
-        <v>0.6398767900707459</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H91" t="n" s="471">
-        <v>-0.534796421058169</v>
+        <v>-0.07571978819468783</v>
       </c>
       <c r="I91" t="n" s="472">
-        <v>-0.7897528725203661</v>
+        <v>0.19438092697207512</v>
       </c>
       <c r="J91" t="n" s="473">
-        <v>0.010078688627185084</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="K91" t="n" s="474">
-        <v>1.276931514799406</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="L91" t="n" s="475">
-        <v>-0.08257998554008988</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="464">
-        <v>10184.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B92" t="n" s="465">
-        <v>1.0276675E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C92" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D92" t="s" s="467">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E92" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F92" t="s" s="469">
         <v>75</v>
       </c>
       <c r="G92" t="n" s="470">
-        <v>0.3038326457914028</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H92" t="n" s="471">
-        <v>-0.0024811512813002756</v>
+        <v>-0.534796421058169</v>
       </c>
       <c r="I92" t="n" s="472">
-        <v>-0.2748557234267931</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J92" t="n" s="473">
-        <v>0.1399511423221378</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K92" t="n" s="474">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L92" t="n" s="475">
-        <v>1.1151835345242138</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="464">
-        <v>10186.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B93" t="n" s="465">
-        <v>1.0310551E7</v>
+        <v>1.0276675E7</v>
       </c>
       <c r="C93" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D93" t="s" s="467">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G93" t="n" s="470">
-        <v>0.7744710186718347</v>
+        <v>0.3038326457914028</v>
       </c>
       <c r="H93" t="n" s="471">
-        <v>0.33599966761122724</v>
+        <v>-0.0024811512813002756</v>
       </c>
       <c r="I93" t="n" s="472">
-        <v>-0.11051255328776674</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="J93" t="n" s="473">
-        <v>0.6054282939846205</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="K93" t="n" s="474">
-        <v>1.406818292763501</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="L93" t="n" s="475">
-        <v>2.1129633750384773</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="464">
-        <v>10189.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B94" t="n" s="465">
-        <v>9363926.0</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C94" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D94" t="s" s="467">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E94" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s" s="469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G94" t="n" s="470">
-        <v>0.04638802440381301</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H94" t="n" s="471">
-        <v>-0.4949336434720333</v>
+        <v>0.33599966761122724</v>
       </c>
       <c r="I94" t="n" s="472">
-        <v>-0.7897528725203661</v>
+        <v>-0.11051255328776674</v>
       </c>
       <c r="J94" t="n" s="473">
-        <v>-0.11298912178826864</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="K94" t="n" s="474">
-        <v>1.65803832991597</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="L94" t="n" s="475">
-        <v>0.5810457503364718</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="464">
-        <v>10193.0</v>
+        <v>10189.0</v>
       </c>
       <c r="B95" t="n" s="465">
-        <v>1.0276762E7</v>
+        <v>9363926.0</v>
       </c>
       <c r="C95" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D95" t="s" s="467">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s" s="468">
         <v>54</v>
       </c>
       <c r="F95" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G95" t="n" s="470">
-        <v>0.4092911304004456</v>
+        <v>0.04638802440381301</v>
       </c>
       <c r="H95" t="n" s="471">
-        <v>-0.333853067990735</v>
+        <v>-0.4949336434720333</v>
       </c>
       <c r="I95" t="n" s="472">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J95" t="n" s="473">
-        <v>-0.5650898958490881</v>
+        <v>-0.11298912178826864</v>
       </c>
       <c r="K95" t="n" s="474">
-        <v>-0.007369671226134078</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="L95" t="n" s="475">
-        <v>-0.8230168399103068</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="464">
-        <v>10195.0</v>
+        <v>10193.0</v>
       </c>
       <c r="B96" t="n" s="465">
-        <v>1.0351971E7</v>
+        <v>1.0276762E7</v>
       </c>
       <c r="C96" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D96" t="s" s="467">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G96" t="n" s="470">
-        <v>0.4770354022576471</v>
+        <v>0.4092911304004456</v>
       </c>
       <c r="H96" t="n" s="471">
-        <v>0.28829891230944166</v>
+        <v>-0.333853067990735</v>
       </c>
       <c r="I96" t="n" s="472">
-        <v>0.48203349533710915</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="J96" t="n" s="473">
-        <v>-0.4561855465861614</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="K96" t="n" s="474">
-        <v>-0.9136302798736788</v>
+        <v>-0.007369671226134078</v>
       </c>
       <c r="L96" t="n" s="475">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="464">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B97" t="n" s="465">
-        <v>1.0310655E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C97" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D97" t="s" s="467">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s" s="468">
         <v>53</v>
@@ -13840,36 +13865,36 @@
         <v>74</v>
       </c>
       <c r="G97" t="n" s="470">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H97" t="n" s="471">
-        <v>0.008114607330584278</v>
+        <v>0.28829891230944166</v>
       </c>
       <c r="I97" t="n" s="472">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
       <c r="J97" t="n" s="473">
-        <v>-0.6724647283674472</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="K97" t="n" s="474">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L97" t="n" s="475">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="464">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B98" t="n" s="465">
-        <v>1.0276661E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C98" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D98" t="s" s="467">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s" s="468">
         <v>53</v>
@@ -13878,112 +13903,112 @@
         <v>74</v>
       </c>
       <c r="G98" t="n" s="470">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H98" t="n" s="471">
-        <v>0.4666838297954899</v>
+        <v>0.008114607330584278</v>
       </c>
       <c r="I98" t="n" s="472">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J98" t="n" s="473">
-        <v>1.4951814648985664</v>
+        <v>-0.6724647283674472</v>
       </c>
       <c r="K98" t="n" s="474">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L98" t="n" s="475">
-        <v>-0.587401218160607</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="464">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B99" t="n" s="465">
-        <v>1.0310888E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C99" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D99" t="s" s="467">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E99" t="s" s="468">
         <v>53</v>
       </c>
       <c r="F99" t="s" s="469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G99" t="n" s="470">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H99" t="n" s="471">
-        <v>1.2184175744803527</v>
+        <v>0.4666838297954899</v>
       </c>
       <c r="I99" t="n" s="472">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="J99" t="n" s="473">
-        <v>1.7454889568746412</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="K99" t="n" s="474">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L99" t="n" s="475">
-        <v>2.1129633750384773</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="464">
-        <v>10199.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B100" t="n" s="465">
-        <v>1.0276737E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C100" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D100" t="s" s="467">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E100" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F100" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G100" t="n" s="470">
-        <v>0.4773203224855433</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H100" t="n" s="471">
-        <v>-0.10207539477021621</v>
+        <v>1.2184175744803527</v>
       </c>
       <c r="I100" t="n" s="472">
-        <v>-0.7897528725203661</v>
+        <v>1.646504990094715</v>
       </c>
       <c r="J100" t="n" s="473">
         <v>1.7454889568746412</v>
       </c>
       <c r="K100" t="n" s="474">
-        <v>1.276931514799406</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L100" t="n" s="475">
-        <v>-0.8230168399103068</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="464">
-        <v>10201.0</v>
+        <v>10199.0</v>
       </c>
       <c r="B101" t="n" s="465">
-        <v>1.0276928E7</v>
+        <v>1.0276737E7</v>
       </c>
       <c r="C101" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D101" t="s" s="467">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" t="s" s="468">
         <v>54</v>
@@ -13992,74 +14017,74 @@
         <v>74</v>
       </c>
       <c r="G101" t="n" s="470">
-        <v>0.1736163319851855</v>
+        <v>0.4773203224855433</v>
       </c>
       <c r="H101" t="n" s="471">
-        <v>0.8019489381162106</v>
+        <v>-0.10207539477021621</v>
       </c>
       <c r="I101" t="n" s="472">
-        <v>1.4951617995718107</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J101" t="n" s="473">
-        <v>0.27922605818079327</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="K101" t="n" s="474">
-        <v>0.8224933277993178</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L101" t="n" s="475">
-        <v>1.8670095161405151</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="464">
-        <v>10204.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B102" t="n" s="465">
-        <v>1.0310471E7</v>
+        <v>9795272.0</v>
       </c>
       <c r="C102" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D102" t="s" s="467">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G102" t="n" s="470">
-        <v>-0.024963847923433036</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="H102" t="n" s="471">
-        <v>0.8112171488100235</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="I102" t="n" s="472">
-        <v>1.9117264102869815</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="J102" t="n" s="473">
-        <v>0.6054282939846205</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K102" t="n" s="474">
-        <v>-0.9136302798736791</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L102" t="n" s="475">
-        <v>0.21371742061314003</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="464">
-        <v>10206.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B103" t="n" s="465">
-        <v>1.0310721E7</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C103" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D103" t="s" s="467">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s" s="468">
         <v>54</v>
@@ -14068,188 +14093,188 @@
         <v>74</v>
       </c>
       <c r="G103" t="n" s="470">
-        <v>0.16036616228342887</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="H103" t="n" s="471">
-        <v>-0.23339570282962474</v>
+        <v>0.8019489381162106</v>
       </c>
       <c r="I103" t="n" s="472">
-        <v>-0.2748557234267931</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="J103" t="n" s="473">
-        <v>1.0818912275643542</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="K103" t="n" s="474">
-        <v>1.65803832991597</v>
+        <v>0.8224933277993178</v>
       </c>
       <c r="L103" t="n" s="475">
-        <v>-0.08257998554008988</v>
+        <v>1.8670095161405151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="464">
-        <v>10209.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B104" t="n" s="465">
-        <v>1.0262669E7</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C104" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D104" t="s" s="467">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G104" t="n" s="470">
-        <v>0.8241600424703993</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="H104" t="n" s="471">
-        <v>-0.2328161539268661</v>
+        <v>0.8112171488100235</v>
       </c>
       <c r="I104" t="n" s="472">
-        <v>-1.4355957758372622</v>
+        <v>1.9117264102869815</v>
       </c>
       <c r="J104" t="n" s="473">
-        <v>-1.3020766723778172</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="K104" t="n" s="474">
-        <v>-0.9136302798736788</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="L104" t="n" s="475">
-        <v>2.1129633750384773</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="464">
-        <v>10213.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B105" t="n" s="465">
-        <v>1.027704E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C105" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D105" t="s" s="467">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s" s="468">
         <v>54</v>
       </c>
       <c r="F105" t="s" s="469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G105" t="n" s="470">
-        <v>0.34235911521372075</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="H105" t="n" s="471">
-        <v>-0.18410762009178533</v>
+        <v>-0.23339570282962474</v>
       </c>
       <c r="I105" t="n" s="472">
-        <v>0.6258755079433425</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="J105" t="n" s="473">
-        <v>-0.4561855465861614</v>
+        <v>1.0818912275643542</v>
       </c>
       <c r="K105" t="n" s="474">
-        <v>-0.9136302798736791</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="L105" t="n" s="475">
-        <v>-1.439574674914235</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="464">
-        <v>10218.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B106" t="n" s="465">
-        <v>9842913.0</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C106" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D106" t="s" s="467">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F106" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G106" t="n" s="470">
-        <v>0.3359920405213156</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="H106" t="n" s="471">
-        <v>-0.5982535009893035</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="I106" t="n" s="472">
-        <v>-1.3261001130049008</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="J106" t="n" s="473">
-        <v>0.010078688627185084</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="K106" t="n" s="474">
-        <v>1.65803832991597</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L106" t="n" s="475">
-        <v>0.5810457503364718</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="464">
-        <v>10221.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B107" t="n" s="465">
-        <v>9082496.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C107" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D107" t="s" s="467">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107" t="s" s="469">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G107" t="n" s="470">
-        <v>0.45629679199508744</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="H107" t="n" s="471">
-        <v>0.3074747488526356</v>
+        <v>-0.18410762009178533</v>
       </c>
       <c r="I107" t="n" s="472">
-        <v>-0.2748557234267931</v>
+        <v>0.6258755079433425</v>
       </c>
       <c r="J107" t="n" s="473">
-        <v>0.010078688627185084</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="K107" t="n" s="474">
-        <v>-0.9136302798736788</v>
+        <v>-0.9136302798736791</v>
       </c>
       <c r="L107" t="n" s="475">
-        <v>0.5810457503364718</v>
+        <v>-1.439574674914235</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="464">
-        <v>10223.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B108" t="n" s="465">
-        <v>9795185.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C108" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D108" t="s" s="467">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E108" t="s" s="468">
         <v>54</v>
@@ -14258,97 +14283,173 @@
         <v>74</v>
       </c>
       <c r="G108" t="n" s="470">
-        <v>0.5860505124924433</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="H108" t="n" s="471">
-        <v>0.492799217216467</v>
+        <v>-0.5982535009893035</v>
       </c>
       <c r="I108" t="n" s="472">
-        <v>1.4951617995718107</v>
+        <v>-1.3261001130049008</v>
       </c>
       <c r="J108" t="n" s="473">
-        <v>0.8125130980292388</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K108" t="n" s="474">
-        <v>-0.007369671226134078</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="L108" t="n" s="475">
-        <v>-0.34384769996131537</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="464">
-        <v>10232.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B109" t="n" s="465">
-        <v>1.0276974E7</v>
+        <v>9082496.0</v>
       </c>
       <c r="C109" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D109" t="s" s="467">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E109" t="s" s="468">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F109" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G109" t="n" s="470">
-        <v>0.2994892197097739</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="H109" t="n" s="471">
-        <v>-0.17005362149882175</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="I109" t="n" s="472">
-        <v>0.6258755079433425</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="J109" t="n" s="473">
-        <v>-0.11298912178826864</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K109" t="n" s="474">
-        <v>1.406818292763501</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L109" t="n" s="475">
-        <v>0.21371742061314003</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="464">
-        <v>10240.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B110" t="n" s="465">
-        <v>1.0276654E7</v>
+        <v>9795185.0</v>
       </c>
       <c r="C110" t="s" s="466">
         <v>59</v>
       </c>
       <c r="D110" t="s" s="467">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E110" t="s" s="468">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110" t="s" s="469">
         <v>74</v>
       </c>
       <c r="G110" t="n" s="470">
+        <v>0.5860505124924433</v>
+      </c>
+      <c r="H110" t="n" s="471">
+        <v>0.492799217216467</v>
+      </c>
+      <c r="I110" t="n" s="472">
+        <v>1.4951617995718107</v>
+      </c>
+      <c r="J110" t="n" s="473">
+        <v>0.8125130980292388</v>
+      </c>
+      <c r="K110" t="n" s="474">
+        <v>-0.007369671226134078</v>
+      </c>
+      <c r="L110" t="n" s="475">
+        <v>-0.34384769996131537</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="464">
+        <v>10232.0</v>
+      </c>
+      <c r="B111" t="n" s="465">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C111" t="s" s="466">
+        <v>59</v>
+      </c>
+      <c r="D111" t="s" s="467">
+        <v>73</v>
+      </c>
+      <c r="E111" t="s" s="468">
+        <v>54</v>
+      </c>
+      <c r="F111" t="s" s="469">
+        <v>74</v>
+      </c>
+      <c r="G111" t="n" s="470">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="H111" t="n" s="471">
+        <v>-0.17005362149882175</v>
+      </c>
+      <c r="I111" t="n" s="472">
+        <v>0.6258755079433425</v>
+      </c>
+      <c r="J111" t="n" s="473">
+        <v>-0.11298912178826864</v>
+      </c>
+      <c r="K111" t="n" s="474">
+        <v>1.406818292763501</v>
+      </c>
+      <c r="L111" t="n" s="475">
+        <v>0.21371742061314003</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="464">
+        <v>10240.0</v>
+      </c>
+      <c r="B112" t="n" s="465">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C112" t="s" s="466">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s" s="467">
+        <v>72</v>
+      </c>
+      <c r="E112" t="s" s="468">
+        <v>53</v>
+      </c>
+      <c r="F112" t="s" s="469">
+        <v>74</v>
+      </c>
+      <c r="G112" t="n" s="470">
         <v>0.8546964096694867</v>
       </c>
-      <c r="H110" t="n" s="471">
+      <c r="H112" t="n" s="471">
         <v>-0.791089338425403</v>
       </c>
-      <c r="I110" t="n" s="472">
+      <c r="I112" t="n" s="472">
         <v>-1.2095717428674873</v>
       </c>
-      <c r="J110" t="n" s="473">
+      <c r="J112" t="n" s="473">
         <v>-1.3020766723778172</v>
       </c>
-      <c r="K110" t="n" s="474">
+      <c r="K112" t="n" s="474">
         <v>-0.9136302798736788</v>
       </c>
-      <c r="L110" t="n" s="475">
+      <c r="L112" t="n" s="475">
         <v>-0.8230168399103068</v>
       </c>
     </row>
@@ -14426,22 +14527,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="506">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="507">
-        <v>-0.09655561829474871</v>
+        <v>-0.15711462450592886</v>
       </c>
       <c r="D6" t="n" s="508">
-        <v>-0.0028401527588840865</v>
+        <v>-0.10131749384597091</v>
       </c>
       <c r="E6" t="n" s="509">
-        <v>-0.18094448387630918</v>
+        <v>-0.1524755464673972</v>
       </c>
       <c r="F6" t="n" s="510">
-        <v>-0.08053645772989913</v>
+        <v>0.009181312481634254</v>
       </c>
       <c r="G6" t="n" s="511">
-        <v>0.26989163500883867</v>
+        <v>0.3175207120042543</v>
       </c>
     </row>
     <row r="7">
@@ -14449,22 +14550,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="506">
-        <v>-0.09655561829474871</v>
+        <v>-0.15711462450592886</v>
       </c>
       <c r="C7" t="n" s="507">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n" s="508">
-        <v>0.8145558112479561</v>
+        <v>0.8189830752549314</v>
       </c>
       <c r="E7" t="n" s="509">
-        <v>0.7724067655469948</v>
+        <v>0.756437126630464</v>
       </c>
       <c r="F7" t="n" s="510">
-        <v>-0.4194848589672444</v>
+        <v>-0.42948139497422455</v>
       </c>
       <c r="G7" t="n" s="511">
-        <v>0.2977330878834346</v>
+        <v>0.25242648153076863</v>
       </c>
     </row>
     <row r="8">
@@ -14472,22 +14573,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="506">
-        <v>-0.0028401527588840865</v>
+        <v>-0.10131749384597091</v>
       </c>
       <c r="C8" t="n" s="507">
-        <v>0.8145558112479561</v>
+        <v>0.8189830752549314</v>
       </c>
       <c r="D8" t="n" s="508">
         <v>1.0</v>
       </c>
       <c r="E8" t="n" s="509">
-        <v>0.644204622410227</v>
+        <v>0.6093587489128659</v>
       </c>
       <c r="F8" t="n" s="510">
-        <v>-0.14513338581200044</v>
+        <v>-0.19202106099616906</v>
       </c>
       <c r="G8" t="n" s="511">
-        <v>0.11746213683483894</v>
+        <v>0.06318682106939327</v>
       </c>
     </row>
     <row r="9">
@@ -14495,22 +14596,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="506">
-        <v>-0.18094448387630918</v>
+        <v>-0.1524755464673972</v>
       </c>
       <c r="C9" t="n" s="507">
-        <v>0.7724067655469948</v>
+        <v>0.756437126630464</v>
       </c>
       <c r="D9" t="n" s="508">
-        <v>0.644204622410227</v>
+        <v>0.6093587489128659</v>
       </c>
       <c r="E9" t="n" s="509">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="510">
-        <v>-0.23005667904823243</v>
+        <v>-0.1960006998304524</v>
       </c>
       <c r="G9" t="n" s="511">
-        <v>-0.020483881106020233</v>
+        <v>-0.011202467945513193</v>
       </c>
     </row>
     <row r="10">
@@ -14518,22 +14619,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="506">
-        <v>-0.08053645772989913</v>
+        <v>0.009181312481634254</v>
       </c>
       <c r="C10" t="n" s="507">
-        <v>-0.4194848589672444</v>
+        <v>-0.42948139497422455</v>
       </c>
       <c r="D10" t="n" s="508">
-        <v>-0.14513338581200044</v>
+        <v>-0.19202106099616906</v>
       </c>
       <c r="E10" t="n" s="509">
-        <v>-0.23005667904823243</v>
+        <v>-0.1960006998304524</v>
       </c>
       <c r="F10" t="n" s="510">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G10" t="n" s="511">
-        <v>0.08249897246469534</v>
+        <v>0.1238885324386141</v>
       </c>
     </row>
     <row r="11">
@@ -14541,19 +14642,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="506">
-        <v>0.26989163500883867</v>
+        <v>0.3175207120042543</v>
       </c>
       <c r="C11" t="n" s="507">
-        <v>0.2977330878834346</v>
+        <v>0.25242648153076863</v>
       </c>
       <c r="D11" t="n" s="508">
-        <v>0.11746213683483894</v>
+        <v>0.06318682106939327</v>
       </c>
       <c r="E11" t="n" s="509">
-        <v>-0.020483881106020233</v>
+        <v>-0.011202467945513193</v>
       </c>
       <c r="F11" t="n" s="510">
-        <v>0.08249897246469534</v>
+        <v>0.1238885324386141</v>
       </c>
       <c r="G11" t="n" s="511">
         <v>1.0</v>
@@ -14599,23 +14700,23 @@
       <c r="A16" t="s" s="525">
         <v>3</v>
       </c>
-      <c r="B16" t="n" s="530">
-        <v>2.1221686142647794E8</v>
+      <c r="B16" t="e" s="530">
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="531">
-        <v>-0.4338369159245781</v>
+        <v>-0.7290441149550575</v>
       </c>
       <c r="D16" t="n" s="532">
-        <v>-0.012701600499325127</v>
+        <v>-0.4666966390338745</v>
       </c>
       <c r="E16" t="n" s="533">
-        <v>-0.822789868262847</v>
+        <v>-0.70699748266496</v>
       </c>
       <c r="F16" t="n" s="534">
-        <v>-0.36134375435661387</v>
+        <v>0.04207583288620672</v>
       </c>
       <c r="G16" t="n" s="535">
-        <v>1.253508920055173</v>
+        <v>1.5344694399530132</v>
       </c>
     </row>
     <row r="17">
@@ -14623,22 +14724,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="530">
-        <v>-0.4338369159245781</v>
-      </c>
-      <c r="C17" t="n" s="531">
-        <v>2.1221686142647794E8</v>
+        <v>-0.7290441149550575</v>
+      </c>
+      <c r="C17" t="e" s="531">
+        <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="532">
-        <v>6.279774727906815</v>
+        <v>6.540495541395749</v>
       </c>
       <c r="E17" t="n" s="533">
-        <v>5.438757478378514</v>
+        <v>5.2998140845589194</v>
       </c>
       <c r="F17" t="n" s="534">
-        <v>-2.0666128702410127</v>
+        <v>-2.1793643525566075</v>
       </c>
       <c r="G17" t="n" s="535">
-        <v>1.3947562210682545</v>
+        <v>1.1954777180421106</v>
       </c>
     </row>
     <row r="18">
@@ -14646,22 +14747,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="530">
-        <v>-0.012701600499325127</v>
+        <v>-0.4666966390338745</v>
       </c>
       <c r="C18" t="n" s="531">
-        <v>6.279774727906815</v>
+        <v>6.540495541395749</v>
       </c>
       <c r="D18" t="e" s="532">
         <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="533">
-        <v>3.7666975655951083</v>
+        <v>3.5218204794663364</v>
       </c>
       <c r="F18" t="n" s="534">
-        <v>-0.656001916750234</v>
+        <v>-0.8966367348864634</v>
       </c>
       <c r="G18" t="n" s="535">
-        <v>0.5289685030853701</v>
+        <v>0.29013816886146004</v>
       </c>
     </row>
     <row r="19">
@@ -14669,22 +14770,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="530">
-        <v>-0.822789868262847</v>
+        <v>-0.70699748266496</v>
       </c>
       <c r="C19" t="n" s="531">
-        <v>5.438757478378514</v>
+        <v>5.2998140845589194</v>
       </c>
       <c r="D19" t="n" s="532">
-        <v>3.7666975655951083</v>
+        <v>3.5218204794663364</v>
       </c>
       <c r="E19" t="e" s="533">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="534">
-        <v>-1.0572018256055002</v>
+        <v>-0.9159541129931688</v>
       </c>
       <c r="G19" t="n" s="535">
-        <v>-0.0916259258419406</v>
+        <v>-0.05133937885677489</v>
       </c>
     </row>
     <row r="20">
@@ -14692,22 +14793,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="530">
-        <v>-0.36134375435661387</v>
+        <v>0.04207583288620672</v>
       </c>
       <c r="C20" t="n" s="531">
-        <v>-2.0666128702410127</v>
+        <v>-2.1793643525566075</v>
       </c>
       <c r="D20" t="n" s="532">
-        <v>-0.656001916750234</v>
+        <v>-0.8966367348864634</v>
       </c>
       <c r="E20" t="n" s="533">
-        <v>-1.0572018256055002</v>
-      </c>
-      <c r="F20" t="e" s="534">
-        <v>#DIV/0!</v>
+        <v>-0.9159541129931688</v>
+      </c>
+      <c r="F20" t="n" s="534">
+        <v>3.075314490824969E8</v>
       </c>
       <c r="G20" t="n" s="535">
-        <v>0.37020860675200884</v>
+        <v>0.5721362344912537</v>
       </c>
     </row>
     <row r="21">
@@ -14715,19 +14816,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="530">
-        <v>1.253508920055173</v>
+        <v>1.5344694399530132</v>
       </c>
       <c r="C21" t="n" s="531">
-        <v>1.3947562210682545</v>
+        <v>1.1954777180421106</v>
       </c>
       <c r="D21" t="n" s="532">
-        <v>0.5289685030853701</v>
+        <v>0.29013816886146004</v>
       </c>
       <c r="E21" t="n" s="533">
-        <v>-0.0916259258419406</v>
+        <v>-0.05133937885677489</v>
       </c>
       <c r="F21" t="n" s="534">
-        <v>0.37020860675200884</v>
+        <v>0.5721362344912537</v>
       </c>
       <c r="G21" t="e" s="535">
         <v>#DIV/0!</v>
@@ -14774,7 +14875,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n" s="554">
-        <v>5.256550598654021E-155</v>
+        <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="555">
         <v>1.0</v>
@@ -14797,19 +14898,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="554">
-        <v>0.6690506468846464</v>
+        <v>0.47402784223966776</v>
       </c>
       <c r="C27" t="n" s="555">
-        <v>5.256550598654021E-155</v>
+        <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="556">
-        <v>5.908384094385164E-5</v>
+        <v>2.653830883845104E-5</v>
       </c>
       <c r="E27" t="n" s="557">
-        <v>3.5398432708687186E-4</v>
+        <v>4.148371295245861E-4</v>
       </c>
       <c r="F27" t="n" s="558">
-        <v>0.6235666191895897</v>
+        <v>0.4900124926213745</v>
       </c>
       <c r="G27" t="n" s="559">
         <v>1.0</v>
@@ -14820,16 +14921,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="554">
-        <v>0.9899917113287721</v>
+        <v>0.6455223719453287</v>
       </c>
       <c r="C28" t="n" s="555">
-        <v>3.9389227295901095E-6</v>
+        <v>1.7692205892300694E-6</v>
       </c>
       <c r="D28" t="n" s="556">
         <v>-0.0</v>
       </c>
       <c r="E28" t="n" s="557">
-        <v>0.015771613149405114</v>
+        <v>0.026329426880264205</v>
       </c>
       <c r="F28" t="n" s="558">
         <v>1.0</v>
@@ -14843,13 +14944,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="554">
-        <v>0.4203299871122561</v>
+        <v>0.4873398843265</v>
       </c>
       <c r="C29" t="n" s="555">
-        <v>2.528459479191942E-5</v>
+        <v>2.9631223537470433E-5</v>
       </c>
       <c r="D29" t="n" s="556">
-        <v>0.001213201011492701</v>
+        <v>0.0020253405292510926</v>
       </c>
       <c r="E29" t="n" s="557">
         <v>-0.0</v>
@@ -14866,19 +14967,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="554">
-        <v>0.7216316231915726</v>
+        <v>0.9668357383296797</v>
       </c>
       <c r="C30" t="n" s="555">
-        <v>0.0519638849324658</v>
+        <v>0.04083437438511454</v>
       </c>
       <c r="D30" t="n" s="556">
-        <v>0.5192992306445258</v>
+        <v>0.38007694137926695</v>
       </c>
       <c r="E30" t="n" s="557">
-        <v>0.30302263304516597</v>
+        <v>0.3700900770100276</v>
       </c>
       <c r="F30" t="n" s="558">
-        <v>-0.0</v>
+        <v>7.469380058456896E-166</v>
       </c>
       <c r="G30" t="n" s="559">
         <v>1.0</v>
@@ -14889,19 +14990,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="554">
-        <v>0.22447653606483164</v>
+        <v>0.13984351110055201</v>
       </c>
       <c r="C31" t="n" s="555">
-        <v>0.17838872912262596</v>
+        <v>0.24522626625556113</v>
       </c>
       <c r="D31" t="n" s="556">
-        <v>0.6026492458196046</v>
+        <v>0.7745561733205849</v>
       </c>
       <c r="E31" t="n" s="557">
-        <v>0.9279067821819571</v>
+        <v>0.9595403029496857</v>
       </c>
       <c r="F31" t="n" s="558">
-        <v>0.7151186359336251</v>
+        <v>0.5733041002069119</v>
       </c>
       <c r="G31" t="n" s="559">
         <v>-0.0</v>
@@ -14942,16 +15043,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="578">
-        <v>-0.49789540815502764</v>
+        <v>-0.5346887580192011</v>
       </c>
       <c r="C36" t="n" s="579">
-        <v>-0.09655561829474871</v>
+        <v>-0.15711462450592886</v>
       </c>
       <c r="D36" t="n" s="580">
-        <v>0.338846830433284</v>
+        <v>0.2727517721038595</v>
       </c>
       <c r="E36" t="n" s="581">
-        <v>0.6690506468846464</v>
+        <v>0.47402784223966776</v>
       </c>
     </row>
     <row r="37">
@@ -14959,16 +15060,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="578">
-        <v>-0.4239409589920095</v>
+        <v>-0.4929331589400459</v>
       </c>
       <c r="C37" t="n" s="579">
-        <v>-0.0028401527588840865</v>
+        <v>-0.10131749384597091</v>
       </c>
       <c r="D37" t="n" s="580">
-        <v>0.41927034200065555</v>
+        <v>0.32443411911002756</v>
       </c>
       <c r="E37" t="n" s="581">
-        <v>0.9899917113287721</v>
+        <v>0.6455223719453287</v>
       </c>
     </row>
     <row r="38">
@@ -14976,16 +15077,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="578">
-        <v>-0.559843727632316</v>
+        <v>-0.5312859981902444</v>
       </c>
       <c r="C38" t="n" s="579">
-        <v>-0.18094448387630918</v>
+        <v>-0.1524755464673972</v>
       </c>
       <c r="D38" t="n" s="580">
-        <v>0.26053996351327874</v>
+        <v>0.2771454284261623</v>
       </c>
       <c r="E38" t="n" s="581">
-        <v>0.4203299871122561</v>
+        <v>0.4873398843265</v>
       </c>
     </row>
     <row r="39">
@@ -14993,16 +15094,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="578">
-        <v>-0.48565457590593775</v>
+        <v>-0.4045519135695756</v>
       </c>
       <c r="C39" t="n" s="579">
-        <v>-0.08053645772989913</v>
+        <v>0.009181312481634254</v>
       </c>
       <c r="D39" t="n" s="580">
-        <v>0.35306009190573245</v>
+        <v>0.4197947516022486</v>
       </c>
       <c r="E39" t="n" s="581">
-        <v>0.7216316231915726</v>
+        <v>0.9668357383296797</v>
       </c>
     </row>
     <row r="40">
@@ -15010,16 +15111,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="578">
-        <v>-0.1711970875948131</v>
+        <v>-0.10893980292564999</v>
       </c>
       <c r="C40" t="n" s="579">
-        <v>0.26989163500883867</v>
+        <v>0.3175207120042543</v>
       </c>
       <c r="D40" t="n" s="580">
-        <v>0.6208539808975626</v>
+        <v>0.6452683995370376</v>
       </c>
       <c r="E40" t="n" s="581">
-        <v>0.22447653606483164</v>
+        <v>0.13984351110055201</v>
       </c>
     </row>
     <row r="41">
@@ -15027,16 +15128,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="578">
-        <v>0.5984792792481632</v>
+        <v>0.6140891815179931</v>
       </c>
       <c r="C41" t="n" s="579">
-        <v>0.8145558112479561</v>
+        <v>0.8189830752549314</v>
       </c>
       <c r="D41" t="n" s="580">
-        <v>0.9201596938484101</v>
+        <v>0.9204527363329686</v>
       </c>
       <c r="E41" t="n" s="581">
-        <v>3.9389227295901095E-6</v>
+        <v>1.7692205892300694E-6</v>
       </c>
     </row>
     <row r="42">
@@ -15044,16 +15145,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="578">
-        <v>0.52020462972874</v>
+        <v>0.5001997475485092</v>
       </c>
       <c r="C42" t="n" s="579">
-        <v>0.7724067655469948</v>
+        <v>0.756437126630464</v>
       </c>
       <c r="D42" t="n" s="580">
-        <v>0.9006995172709129</v>
+        <v>0.8908635630665969</v>
       </c>
       <c r="E42" t="n" s="581">
-        <v>2.528459479191942E-5</v>
+        <v>2.9631223537470433E-5</v>
       </c>
     </row>
     <row r="43">
@@ -15061,16 +15162,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="578">
-        <v>-0.7146937426922687</v>
+        <v>-0.7150890865239146</v>
       </c>
       <c r="C43" t="n" s="579">
-        <v>-0.4194848589672444</v>
+        <v>-0.42948139497422455</v>
       </c>
       <c r="D43" t="n" s="580">
-        <v>0.0025798572197207803</v>
+        <v>-0.02099625157800618</v>
       </c>
       <c r="E43" t="n" s="581">
-        <v>0.0519638849324658</v>
+        <v>0.04083437438511454</v>
       </c>
     </row>
     <row r="44">
@@ -15078,16 +15179,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="578">
-        <v>-0.1416571220578472</v>
+        <v>-0.17833118769262005</v>
       </c>
       <c r="C44" t="n" s="579">
-        <v>0.2977330878834346</v>
+        <v>0.25242648153076863</v>
       </c>
       <c r="D44" t="n" s="580">
-        <v>0.6391154297623836</v>
+        <v>0.601991041443028</v>
       </c>
       <c r="E44" t="n" s="581">
-        <v>0.17838872912262596</v>
+        <v>0.24522626625556113</v>
       </c>
     </row>
     <row r="45">
@@ -15095,16 +15196,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="578">
-        <v>0.3055969528384789</v>
+        <v>0.26328932184610815</v>
       </c>
       <c r="C45" t="n" s="579">
-        <v>0.644204622410227</v>
+        <v>0.6093587489128659</v>
       </c>
       <c r="D45" t="n" s="580">
-        <v>0.838165539857018</v>
+        <v>0.8164786359131988</v>
       </c>
       <c r="E45" t="n" s="581">
-        <v>0.001213201011492701</v>
+        <v>0.0020253405292510926</v>
       </c>
     </row>
     <row r="46">
@@ -15112,16 +15213,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="578">
-        <v>-0.5340628165914008</v>
+        <v>-0.5599058498323702</v>
       </c>
       <c r="C46" t="n" s="579">
-        <v>-0.14513338581200044</v>
+        <v>-0.19202106099616906</v>
       </c>
       <c r="D46" t="n" s="580">
-        <v>0.29449505484369726</v>
+        <v>0.2391067750028841</v>
       </c>
       <c r="E46" t="n" s="581">
-        <v>0.5192992306445258</v>
+        <v>0.38007694137926695</v>
       </c>
     </row>
     <row r="47">
@@ -15129,16 +15230,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="578">
-        <v>-0.3199933500126627</v>
+        <v>-0.35834881718072</v>
       </c>
       <c r="C47" t="n" s="579">
-        <v>0.11746213683483894</v>
+        <v>0.06318682106939327</v>
       </c>
       <c r="D47" t="n" s="580">
-        <v>0.5136338782192242</v>
+        <v>0.4633214450659045</v>
       </c>
       <c r="E47" t="n" s="581">
-        <v>0.6026492458196046</v>
+        <v>0.7745561733205849</v>
       </c>
     </row>
     <row r="48">
@@ -15146,16 +15247,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="578">
-        <v>-0.5940462951242383</v>
+        <v>-0.5627381808256972</v>
       </c>
       <c r="C48" t="n" s="579">
-        <v>-0.23005667904823243</v>
+        <v>-0.1960006998304524</v>
       </c>
       <c r="D48" t="n" s="580">
-        <v>0.21212675630132796</v>
+        <v>0.2352040631315378</v>
       </c>
       <c r="E48" t="n" s="581">
-        <v>0.30302263304516597</v>
+        <v>0.3700900770100276</v>
       </c>
     </row>
     <row r="49">
@@ -15163,16 +15264,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="578">
-        <v>-0.4383070307474669</v>
+        <v>-0.42145848311518636</v>
       </c>
       <c r="C49" t="n" s="579">
-        <v>-0.020483881106020233</v>
+        <v>-0.011202467945513193</v>
       </c>
       <c r="D49" t="n" s="580">
-        <v>0.40461892655258774</v>
+        <v>0.4028599875136311</v>
       </c>
       <c r="E49" t="n" s="581">
-        <v>0.9279067821819571</v>
+        <v>0.9595403029496857</v>
       </c>
     </row>
     <row r="50">
@@ -15180,16 +15281,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="578">
-        <v>-0.3513295100520688</v>
+        <v>-0.3038293337020725</v>
       </c>
       <c r="C50" t="n" s="579">
-        <v>0.08249897246469534</v>
+        <v>0.1238885324386141</v>
       </c>
       <c r="D50" t="n" s="580">
-        <v>0.487162794574092</v>
+        <v>0.5100442180594695</v>
       </c>
       <c r="E50" t="n" s="581">
-        <v>0.7151186359336251</v>
+        <v>0.5733041002069119</v>
       </c>
     </row>
     <row r="51">
@@ -15489,187 +15590,202 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="600">
-        <v>0.5809977278311512</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B68" t="n" s="601">
-        <v>-1.1109589850467905</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="C68" t="n" s="602">
-        <v>-0.7897528725203661</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D68" t="n" s="603">
-        <v>-1.2104795319559272</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E68" t="n" s="604">
-        <v>2.4262382357267374</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F68" t="n" s="605">
-        <v>1.5139624552773951</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="600">
-        <v>0.3192426882839674</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="B69" t="n" s="601">
-        <v>0.2189999017361688</v>
+        <v>-1.1109589850467905</v>
       </c>
       <c r="C69" t="n" s="602">
         <v>-0.7897528725203661</v>
       </c>
       <c r="D69" t="n" s="603">
-        <v>1.60499198206012</v>
+        <v>-1.2104795319559272</v>
       </c>
       <c r="E69" t="n" s="604">
-        <v>-0.007369671226134189</v>
+        <v>2.4262382357267374</v>
       </c>
       <c r="F69" t="n" s="605">
-        <v>-0.8230168399103068</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="600">
-        <v>0.6197193432307015</v>
+        <v>0.3192426882839674</v>
       </c>
       <c r="B70" t="n" s="601">
-        <v>0.8165526685947714</v>
+        <v>0.2189999017361688</v>
       </c>
       <c r="C70" t="n" s="602">
-        <v>1.4951617995718105</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="D70" t="n" s="603">
-        <v>0.1399511423221378</v>
+        <v>1.60499198206012</v>
       </c>
       <c r="E70" t="n" s="604">
-        <v>0.624803490026419</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="F70" t="n" s="605">
-        <v>1.5139624552773951</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="600">
-        <v>0.8241600424703993</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="B71" t="n" s="601">
-        <v>-0.2328161539268661</v>
+        <v>0.8165526685947714</v>
       </c>
       <c r="C71" t="n" s="602">
-        <v>-1.4355957758372622</v>
+        <v>1.4951617995718105</v>
       </c>
       <c r="D71" t="n" s="603">
-        <v>-1.3020766723778172</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="E71" t="n" s="604">
-        <v>-0.9136302798736788</v>
+        <v>0.624803490026419</v>
       </c>
       <c r="F71" t="n" s="605">
-        <v>2.1129633750384773</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="600">
-        <v>0.45823897387483636</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B72" t="n" s="601">
-        <v>-0.9025119136659654</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="C72" t="n" s="602">
-        <v>-1.2095717428674873</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="D72" t="n" s="603">
-        <v>-1.4411884156504111</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="E72" t="n" s="604">
-        <v>2.074471030670177</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F72" t="n" s="605">
-        <v>1.1151835345242138</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="600">
-        <v>0.3937723028891714</v>
+        <v>0.45823897387483636</v>
       </c>
       <c r="B73" t="n" s="601">
-        <v>0.64143407661485</v>
+        <v>-0.9025119136659654</v>
       </c>
       <c r="C73" t="n" s="602">
-        <v>0.6258755079433423</v>
+        <v>-1.2095717428674873</v>
       </c>
       <c r="D73" t="n" s="603">
-        <v>0.8125130980292387</v>
+        <v>-1.4411884156504111</v>
       </c>
       <c r="E73" t="n" s="604">
-        <v>-0.9136302798736785</v>
+        <v>2.074471030670177</v>
       </c>
       <c r="F73" t="n" s="605">
-        <v>0.21371742061314003</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="600">
-        <v>0.45629679199508744</v>
+        <v>0.3937723028891714</v>
       </c>
       <c r="B74" t="n" s="601">
-        <v>0.3074747488526356</v>
+        <v>0.64143407661485</v>
       </c>
       <c r="C74" t="n" s="602">
-        <v>-0.2748557234267931</v>
+        <v>0.6258755079433423</v>
       </c>
       <c r="D74" t="n" s="603">
-        <v>0.010078688627185084</v>
+        <v>0.8125130980292387</v>
       </c>
       <c r="E74" t="n" s="604">
-        <v>-0.9136302798736788</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="F74" t="n" s="605">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="600">
-        <v>0.32778389637104416</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B75" t="n" s="601">
-        <v>-1.106203408558609</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="C75" t="n" s="602">
-        <v>-0.9440135863889301</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D75" t="n" s="603">
-        <v>-1.3237490316352398</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E75" t="n" s="604">
-        <v>2.074471030670177</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="F75" t="n" s="605">
-        <v>-0.08257998554008983</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="600">
+        <v>0.32778389637104416</v>
+      </c>
+      <c r="B76" t="n" s="601">
+        <v>-1.106203408558609</v>
+      </c>
+      <c r="C76" t="n" s="602">
+        <v>-0.9440135863889301</v>
+      </c>
+      <c r="D76" t="n" s="603">
+        <v>-1.3237490316352398</v>
+      </c>
+      <c r="E76" t="n" s="604">
+        <v>2.074471030670177</v>
+      </c>
+      <c r="F76" t="n" s="605">
+        <v>-0.08257998554008983</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="600">
         <v>0.8546964096694867</v>
       </c>
-      <c r="B76" t="n" s="601">
+      <c r="B77" t="n" s="601">
         <v>-0.791089338425403</v>
       </c>
-      <c r="C76" t="n" s="602">
+      <c r="C77" t="n" s="602">
         <v>-1.2095717428674873</v>
       </c>
-      <c r="D76" t="n" s="603">
+      <c r="D77" t="n" s="603">
         <v>-1.3020766723778172</v>
       </c>
-      <c r="E76" t="n" s="604">
+      <c r="E77" t="n" s="604">
         <v>-0.9136302798736788</v>
       </c>
-      <c r="F76" t="n" s="605">
+      <c r="F77" t="n" s="605">
         <v>-0.8230168399103068</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -15678,212 +15794,179 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="609">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="609">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="623">
+    <row r="81">
+      <c r="A81" t="s" s="623">
         <v>33</v>
       </c>
-      <c r="B80" t="s" s="623">
+      <c r="B81" t="s" s="623">
         <v>37</v>
       </c>
-      <c r="C80" t="s" s="623">
+      <c r="C81" t="s" s="623">
         <v>38</v>
       </c>
-      <c r="D80" t="s" s="623">
+      <c r="D81" t="s" s="623">
         <v>39</v>
       </c>
-      <c r="E80" t="s" s="623">
+      <c r="E81" t="s" s="623">
         <v>40</v>
       </c>
-      <c r="F80" t="s" s="623">
+      <c r="F81" t="s" s="623">
         <v>41</v>
       </c>
-      <c r="G80" t="s" s="623">
+      <c r="G81" t="s" s="623">
         <v>3</v>
       </c>
-      <c r="H80" t="s" s="623">
+      <c r="H81" t="s" s="623">
         <v>4</v>
       </c>
-      <c r="I80" t="s" s="623">
+      <c r="I81" t="s" s="623">
         <v>5</v>
       </c>
-      <c r="J80" t="s" s="623">
+      <c r="J81" t="s" s="623">
         <v>6</v>
       </c>
-      <c r="K80" t="s" s="623">
+      <c r="K81" t="s" s="623">
         <v>7</v>
       </c>
-      <c r="L80" t="s" s="623">
+      <c r="L81" t="s" s="623">
         <v>8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="624">
-        <v>10170.0</v>
-      </c>
-      <c r="B81" t="n" s="625">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C81" t="s" s="626">
-        <v>59</v>
-      </c>
-      <c r="D81" t="s" s="627">
-        <v>61</v>
-      </c>
-      <c r="E81" t="s" s="628">
-        <v>53</v>
-      </c>
-      <c r="F81" t="s" s="629">
-        <v>74</v>
-      </c>
-      <c r="G81" t="n" s="630">
-        <v>0.44355069885067455</v>
-      </c>
-      <c r="H81" t="n" s="631">
-        <v>0.5697381260416503</v>
-      </c>
-      <c r="I81" t="n" s="632">
-        <v>0.3390917056505436</v>
-      </c>
-      <c r="J81" t="n" s="633">
-        <v>0.8125130980292388</v>
-      </c>
-      <c r="K81" t="n" s="634">
-        <v>-0.9136302798736788</v>
-      </c>
-      <c r="L81" t="n" s="635">
-        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="624">
-        <v>10171.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B82" t="n" s="625">
-        <v>698531.0</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C82" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s" s="627">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F82" t="s" s="629">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G82" t="n" s="630">
-        <v>0.7980642794979789</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="H82" t="n" s="631">
-        <v>0.28259495124012457</v>
+        <v>0.5697381260416503</v>
       </c>
       <c r="I82" t="n" s="632">
-        <v>0.773547756634461</v>
+        <v>0.3390917056505436</v>
       </c>
       <c r="J82" t="n" s="633">
-        <v>0.4320423626399933</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="K82" t="n" s="634">
-        <v>-0.007369671226134189</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L82" t="n" s="635">
-        <v>-0.08257998554008983</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="624">
-        <v>10176.0</v>
+        <v>10171.0</v>
       </c>
       <c r="B83" t="n" s="625">
-        <v>1.0276949E7</v>
+        <v>698531.0</v>
       </c>
       <c r="C83" t="s" s="626">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s" s="627">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F83" t="s" s="629">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G83" t="n" s="630">
-        <v>0.5310873221279265</v>
+        <v>0.7980642794979789</v>
       </c>
       <c r="H83" t="n" s="631">
-        <v>-0.6106220062284993</v>
+        <v>0.28259495124012457</v>
       </c>
       <c r="I83" t="n" s="632">
-        <v>-0.621765728385078</v>
+        <v>0.773547756634461</v>
       </c>
       <c r="J83" t="n" s="633">
-        <v>0.27922605818079327</v>
+        <v>0.4320423626399933</v>
       </c>
       <c r="K83" t="n" s="634">
-        <v>1.276931514799406</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="L83" t="n" s="635">
-        <v>-0.8230168399103068</v>
+        <v>-0.08257998554008983</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="624">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B84" t="n" s="625">
-        <v>8656201.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C84" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D84" t="s" s="627">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E84" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F84" t="s" s="629">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G84" t="n" s="630">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H84" t="n" s="631">
-        <v>-0.07571978819468783</v>
+        <v>-0.6106220062284993</v>
       </c>
       <c r="I84" t="n" s="632">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
       <c r="J84" t="n" s="633">
         <v>0.27922605818079327</v>
       </c>
       <c r="K84" t="n" s="634">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L84" t="n" s="635">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="624">
-        <v>10183.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B85" t="n" s="625">
-        <v>1.035203E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C85" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D85" t="s" s="627">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s" s="628">
         <v>53</v>
@@ -15892,150 +15975,150 @@
         <v>75</v>
       </c>
       <c r="G85" t="n" s="630">
-        <v>0.6398767900707459</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H85" t="n" s="631">
-        <v>-0.534796421058169</v>
+        <v>-0.07571978819468783</v>
       </c>
       <c r="I85" t="n" s="632">
-        <v>-0.7897528725203661</v>
+        <v>0.19438092697207512</v>
       </c>
       <c r="J85" t="n" s="633">
-        <v>0.010078688627185084</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="K85" t="n" s="634">
-        <v>1.276931514799406</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="L85" t="n" s="635">
-        <v>-0.08257998554008988</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="624">
-        <v>10185.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B86" t="n" s="625">
-        <v>1.027696E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C86" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s" s="627">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E86" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F86" t="s" s="629">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G86" t="n" s="630">
-        <v>0.6117407227935575</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H86" t="n" s="631">
-        <v>-0.7331118862687052</v>
+        <v>-0.534796421058169</v>
       </c>
       <c r="I86" t="n" s="632">
         <v>-0.7897528725203661</v>
       </c>
       <c r="J86" t="n" s="633">
-        <v>-0.5650898958490881</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K86" t="n" s="634">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L86" t="n" s="635">
-        <v>-0.5874012181606069</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="624">
-        <v>10186.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B87" t="n" s="625">
-        <v>1.0310551E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C87" t="s" s="626">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s" s="627">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F87" t="s" s="629">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G87" t="n" s="630">
-        <v>0.7744710186718347</v>
+        <v>0.6117407227935575</v>
       </c>
       <c r="H87" t="n" s="631">
-        <v>0.33599966761122724</v>
+        <v>-0.7331118862687052</v>
       </c>
       <c r="I87" t="n" s="632">
-        <v>-0.11051255328776674</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J87" t="n" s="633">
-        <v>0.6054282939846205</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="K87" t="n" s="634">
-        <v>1.406818292763501</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="L87" t="n" s="635">
-        <v>2.1129633750384773</v>
+        <v>-0.5874012181606069</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="624">
-        <v>10187.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B88" t="n" s="625">
-        <v>9790781.0</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C88" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s" s="627">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F88" t="s" s="629">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G88" t="n" s="630">
-        <v>0.5363092399507949</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H88" t="n" s="631">
-        <v>0.9091344729335656</v>
+        <v>0.33599966761122724</v>
       </c>
       <c r="I88" t="n" s="632">
-        <v>1.6864194200065388</v>
+        <v>-0.11051255328776674</v>
       </c>
       <c r="J88" t="n" s="633">
-        <v>0.4320423626399933</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="K88" t="n" s="634">
-        <v>1.65803832991597</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="L88" t="n" s="635">
-        <v>1.1151835345242138</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="624">
-        <v>10192.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B89" t="n" s="625">
-        <v>1.0276682E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C89" t="s" s="626">
         <v>42</v>
       </c>
       <c r="D89" t="s" s="627">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s" s="628">
         <v>53</v>
@@ -16044,74 +16127,74 @@
         <v>55</v>
       </c>
       <c r="G89" t="n" s="630">
-        <v>0.6023079138440499</v>
+        <v>0.5363092399507949</v>
       </c>
       <c r="H89" t="n" s="631">
-        <v>0.14303845958547945</v>
+        <v>0.9091344729335656</v>
       </c>
       <c r="I89" t="n" s="632">
-        <v>1.2808857647983833</v>
+        <v>1.6864194200065388</v>
       </c>
       <c r="J89" t="n" s="633">
-        <v>-0.5650898958490881</v>
+        <v>0.4320423626399933</v>
       </c>
       <c r="K89" t="n" s="634">
-        <v>-0.9136302798736785</v>
+        <v>1.65803832991597</v>
       </c>
       <c r="L89" t="n" s="635">
-        <v>-1.0572723104810566</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="624">
-        <v>10195.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B90" t="n" s="625">
-        <v>1.0351971E7</v>
+        <v>1.0276682E7</v>
       </c>
       <c r="C90" t="s" s="626">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s" s="627">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F90" t="s" s="629">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G90" t="n" s="630">
-        <v>0.4770354022576471</v>
+        <v>0.6023079138440499</v>
       </c>
       <c r="H90" t="n" s="631">
-        <v>0.28829891230944166</v>
+        <v>0.14303845958547945</v>
       </c>
       <c r="I90" t="n" s="632">
-        <v>0.48203349533710915</v>
+        <v>1.2808857647983833</v>
       </c>
       <c r="J90" t="n" s="633">
-        <v>-0.4561855465861614</v>
+        <v>-0.5650898958490881</v>
       </c>
       <c r="K90" t="n" s="634">
-        <v>-0.9136302798736788</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="L90" t="n" s="635">
-        <v>0.21371742061314003</v>
+        <v>-1.0572723104810566</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="624">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B91" t="n" s="625">
-        <v>1.0310655E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C91" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D91" t="s" s="627">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s" s="628">
         <v>53</v>
@@ -16120,36 +16203,36 @@
         <v>74</v>
       </c>
       <c r="G91" t="n" s="630">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H91" t="n" s="631">
-        <v>0.008114607330584278</v>
+        <v>0.28829891230944166</v>
       </c>
       <c r="I91" t="n" s="632">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
       <c r="J91" t="n" s="633">
-        <v>-0.6724647283674472</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="K91" t="n" s="634">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L91" t="n" s="635">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="624">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B92" t="n" s="625">
-        <v>1.0276661E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C92" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D92" t="s" s="627">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s" s="628">
         <v>53</v>
@@ -16158,150 +16241,150 @@
         <v>74</v>
       </c>
       <c r="G92" t="n" s="630">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H92" t="n" s="631">
-        <v>0.4666838297954899</v>
+        <v>0.008114607330584278</v>
       </c>
       <c r="I92" t="n" s="632">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J92" t="n" s="633">
-        <v>1.4951814648985664</v>
+        <v>-0.6724647283674472</v>
       </c>
       <c r="K92" t="n" s="634">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L92" t="n" s="635">
-        <v>-0.587401218160607</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="624">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B93" t="n" s="625">
-        <v>1.0310888E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C93" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D93" t="s" s="627">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F93" t="s" s="629">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G93" t="n" s="630">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H93" t="n" s="631">
-        <v>1.2184175744803527</v>
+        <v>0.4666838297954899</v>
       </c>
       <c r="I93" t="n" s="632">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="J93" t="n" s="633">
-        <v>1.7454889568746412</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="K93" t="n" s="634">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L93" t="n" s="635">
-        <v>2.1129633750384773</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="624">
-        <v>10202.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B94" t="n" s="625">
-        <v>1.0277036E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C94" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s" s="627">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F94" t="s" s="629">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G94" t="n" s="630">
-        <v>0.5809977278311512</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H94" t="n" s="631">
-        <v>-1.1109589850467905</v>
+        <v>1.2184175744803527</v>
       </c>
       <c r="I94" t="n" s="632">
-        <v>-0.7897528725203661</v>
+        <v>1.646504990094715</v>
       </c>
       <c r="J94" t="n" s="633">
-        <v>-1.2104795319559272</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="K94" t="n" s="634">
-        <v>2.4262382357267374</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L94" t="n" s="635">
-        <v>1.5139624552773951</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="624">
-        <v>10203.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B95" t="n" s="625">
-        <v>9921470.0</v>
+        <v>9795272.0</v>
       </c>
       <c r="C95" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s" s="627">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F95" t="s" s="629">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G95" t="n" s="630">
-        <v>0.3192426882839674</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="H95" t="n" s="631">
-        <v>0.2189999017361688</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="I95" t="n" s="632">
-        <v>-0.7897528725203661</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="J95" t="n" s="633">
-        <v>1.60499198206012</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K95" t="n" s="634">
-        <v>-0.007369671226134189</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L95" t="n" s="635">
-        <v>-0.8230168399103068</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="624">
-        <v>10208.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B96" t="n" s="625">
-        <v>1.0276932E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C96" t="s" s="626">
         <v>42</v>
       </c>
       <c r="D96" t="s" s="627">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E96" t="s" s="628">
         <v>53</v>
@@ -16310,19 +16393,19 @@
         <v>55</v>
       </c>
       <c r="G96" t="n" s="630">
-        <v>0.6197193432307015</v>
+        <v>0.5809977278311512</v>
       </c>
       <c r="H96" t="n" s="631">
-        <v>0.8165526685947714</v>
+        <v>-1.1109589850467905</v>
       </c>
       <c r="I96" t="n" s="632">
-        <v>1.4951617995718105</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J96" t="n" s="633">
-        <v>0.1399511423221378</v>
+        <v>-1.2104795319559272</v>
       </c>
       <c r="K96" t="n" s="634">
-        <v>0.624803490026419</v>
+        <v>2.4262382357267374</v>
       </c>
       <c r="L96" t="n" s="635">
         <v>1.5139624552773951</v>
@@ -16330,54 +16413,54 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="624">
-        <v>10209.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B97" t="n" s="625">
-        <v>1.0262669E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C97" t="s" s="626">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s" s="627">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F97" t="s" s="629">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G97" t="n" s="630">
-        <v>0.8241600424703993</v>
+        <v>0.3192426882839674</v>
       </c>
       <c r="H97" t="n" s="631">
-        <v>-0.2328161539268661</v>
+        <v>0.2189999017361688</v>
       </c>
       <c r="I97" t="n" s="632">
-        <v>-1.4355957758372622</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J97" t="n" s="633">
-        <v>-1.3020766723778172</v>
+        <v>1.60499198206012</v>
       </c>
       <c r="K97" t="n" s="634">
-        <v>-0.9136302798736788</v>
+        <v>-0.007369671226134189</v>
       </c>
       <c r="L97" t="n" s="635">
-        <v>2.1129633750384773</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="624">
-        <v>10210.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B98" t="n" s="625">
-        <v>1.0277015E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C98" t="s" s="626">
         <v>42</v>
       </c>
       <c r="D98" t="s" s="627">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s" s="628">
         <v>53</v>
@@ -16386,112 +16469,112 @@
         <v>55</v>
       </c>
       <c r="G98" t="n" s="630">
-        <v>0.45823897387483636</v>
+        <v>0.6197193432307015</v>
       </c>
       <c r="H98" t="n" s="631">
-        <v>-0.9025119136659654</v>
+        <v>0.8165526685947714</v>
       </c>
       <c r="I98" t="n" s="632">
-        <v>-1.2095717428674873</v>
+        <v>1.4951617995718105</v>
       </c>
       <c r="J98" t="n" s="633">
-        <v>-1.4411884156504111</v>
+        <v>0.1399511423221378</v>
       </c>
       <c r="K98" t="n" s="634">
-        <v>2.074471030670177</v>
+        <v>0.624803490026419</v>
       </c>
       <c r="L98" t="n" s="635">
-        <v>1.1151835345242138</v>
+        <v>1.5139624552773951</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="624">
-        <v>10220.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B99" t="n" s="625">
-        <v>9760151.0</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C99" t="s" s="626">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s" s="627">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F99" t="s" s="629">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G99" t="n" s="630">
-        <v>0.3937723028891714</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="H99" t="n" s="631">
-        <v>0.64143407661485</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="I99" t="n" s="632">
-        <v>0.6258755079433423</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="J99" t="n" s="633">
-        <v>0.8125130980292387</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="K99" t="n" s="634">
-        <v>-0.9136302798736785</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L99" t="n" s="635">
-        <v>0.21371742061314003</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="624">
-        <v>10221.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B100" t="n" s="625">
-        <v>9082496.0</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C100" t="s" s="626">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s" s="627">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s" s="628">
         <v>53</v>
       </c>
       <c r="F100" t="s" s="629">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G100" t="n" s="630">
-        <v>0.45629679199508744</v>
+        <v>0.45823897387483636</v>
       </c>
       <c r="H100" t="n" s="631">
-        <v>0.3074747488526356</v>
+        <v>-0.9025119136659654</v>
       </c>
       <c r="I100" t="n" s="632">
-        <v>-0.2748557234267931</v>
+        <v>-1.2095717428674873</v>
       </c>
       <c r="J100" t="n" s="633">
-        <v>0.010078688627185084</v>
+        <v>-1.4411884156504111</v>
       </c>
       <c r="K100" t="n" s="634">
-        <v>-0.9136302798736788</v>
+        <v>2.074471030670177</v>
       </c>
       <c r="L100" t="n" s="635">
-        <v>0.5810457503364718</v>
+        <v>1.1151835345242138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="624">
-        <v>10238.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B101" t="n" s="625">
-        <v>1.0276953E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C101" t="s" s="626">
         <v>42</v>
       </c>
       <c r="D101" t="s" s="627">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E101" t="s" s="628">
         <v>53</v>
@@ -16500,36 +16583,36 @@
         <v>55</v>
       </c>
       <c r="G101" t="n" s="630">
-        <v>0.32778389637104416</v>
+        <v>0.3937723028891714</v>
       </c>
       <c r="H101" t="n" s="631">
-        <v>-1.106203408558609</v>
+        <v>0.64143407661485</v>
       </c>
       <c r="I101" t="n" s="632">
-        <v>-0.9440135863889301</v>
+        <v>0.6258755079433423</v>
       </c>
       <c r="J101" t="n" s="633">
-        <v>-1.3237490316352398</v>
+        <v>0.8125130980292387</v>
       </c>
       <c r="K101" t="n" s="634">
-        <v>2.074471030670177</v>
+        <v>-0.9136302798736785</v>
       </c>
       <c r="L101" t="n" s="635">
-        <v>-0.08257998554008983</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="624">
-        <v>10240.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B102" t="n" s="625">
-        <v>1.0276654E7</v>
+        <v>9082496.0</v>
       </c>
       <c r="C102" t="s" s="626">
         <v>59</v>
       </c>
       <c r="D102" t="s" s="627">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E102" t="s" s="628">
         <v>53</v>
@@ -16538,21 +16621,97 @@
         <v>74</v>
       </c>
       <c r="G102" t="n" s="630">
-        <v>0.8546964096694867</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="H102" t="n" s="631">
-        <v>-0.791089338425403</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="I102" t="n" s="632">
-        <v>-1.2095717428674873</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="J102" t="n" s="633">
-        <v>-1.3020766723778172</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K102" t="n" s="634">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L102" t="n" s="635">
+        <v>0.5810457503364718</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="624">
+        <v>10238.0</v>
+      </c>
+      <c r="B103" t="n" s="625">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C103" t="s" s="626">
+        <v>42</v>
+      </c>
+      <c r="D103" t="s" s="627">
+        <v>51</v>
+      </c>
+      <c r="E103" t="s" s="628">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s" s="629">
+        <v>55</v>
+      </c>
+      <c r="G103" t="n" s="630">
+        <v>0.32778389637104416</v>
+      </c>
+      <c r="H103" t="n" s="631">
+        <v>-1.106203408558609</v>
+      </c>
+      <c r="I103" t="n" s="632">
+        <v>-0.9440135863889301</v>
+      </c>
+      <c r="J103" t="n" s="633">
+        <v>-1.3237490316352398</v>
+      </c>
+      <c r="K103" t="n" s="634">
+        <v>2.074471030670177</v>
+      </c>
+      <c r="L103" t="n" s="635">
+        <v>-0.08257998554008983</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="624">
+        <v>10240.0</v>
+      </c>
+      <c r="B104" t="n" s="625">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C104" t="s" s="626">
+        <v>59</v>
+      </c>
+      <c r="D104" t="s" s="627">
+        <v>72</v>
+      </c>
+      <c r="E104" t="s" s="628">
+        <v>53</v>
+      </c>
+      <c r="F104" t="s" s="629">
+        <v>74</v>
+      </c>
+      <c r="G104" t="n" s="630">
+        <v>0.8546964096694867</v>
+      </c>
+      <c r="H104" t="n" s="631">
+        <v>-0.791089338425403</v>
+      </c>
+      <c r="I104" t="n" s="632">
+        <v>-1.2095717428674873</v>
+      </c>
+      <c r="J104" t="n" s="633">
+        <v>-1.3020766723778172</v>
+      </c>
+      <c r="K104" t="n" s="634">
+        <v>-0.9136302798736788</v>
+      </c>
+      <c r="L104" t="n" s="635">
         <v>-0.8230168399103068</v>
       </c>
     </row>
@@ -21737,19 +21896,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="1147">
-        <v>-0.45454545454545464</v>
+        <v>-0.5109890109890111</v>
       </c>
       <c r="D6" t="n" s="1148">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
       <c r="E6" t="n" s="1149">
-        <v>-0.37610364583185846</v>
+        <v>-0.2825582333929586</v>
       </c>
       <c r="F6" t="n" s="1150">
-        <v>0.26276015185165796</v>
+        <v>0.319425642241868</v>
       </c>
       <c r="G6" t="n" s="1151">
-        <v>0.24203120058654198</v>
+        <v>0.31523933229843204</v>
       </c>
     </row>
     <row r="7">
@@ -21757,22 +21916,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="1146">
-        <v>-0.45454545454545464</v>
+        <v>-0.5109890109890111</v>
       </c>
       <c r="C7" t="n" s="1147">
         <v>1.0</v>
       </c>
       <c r="D7" t="n" s="1148">
-        <v>0.7530659534637223</v>
+        <v>0.773040621272425</v>
       </c>
       <c r="E7" t="n" s="1149">
-        <v>0.734632354942602</v>
+        <v>0.692544689688624</v>
       </c>
       <c r="F7" t="n" s="1150">
-        <v>-0.30029731640189483</v>
+        <v>-0.3530493940568014</v>
       </c>
       <c r="G7" t="n" s="1151">
-        <v>0.5089773777040515</v>
+        <v>0.3849825474087047</v>
       </c>
     </row>
     <row r="8">
@@ -21780,22 +21939,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="1146">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
       <c r="C8" t="n" s="1147">
-        <v>0.7530659534637223</v>
+        <v>0.773040621272425</v>
       </c>
       <c r="D8" t="n" s="1148">
         <v>1.0</v>
       </c>
       <c r="E8" t="n" s="1149">
-        <v>0.7341594807686742</v>
+        <v>0.638018115774506</v>
       </c>
       <c r="F8" t="n" s="1150">
-        <v>-0.10027456415667277</v>
+        <v>-0.17340067340067342</v>
       </c>
       <c r="G8" t="n" s="1151">
-        <v>0.15866569556587365</v>
+        <v>0.07402956691986162</v>
       </c>
     </row>
     <row r="9">
@@ -21803,22 +21962,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="1146">
-        <v>-0.37610364583185846</v>
+        <v>-0.2825582333929586</v>
       </c>
       <c r="C9" t="n" s="1147">
-        <v>0.734632354942602</v>
+        <v>0.692544689688624</v>
       </c>
       <c r="D9" t="n" s="1148">
-        <v>0.7341594807686742</v>
+        <v>0.638018115774506</v>
       </c>
       <c r="E9" t="n" s="1149">
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="1150">
-        <v>0.19496726812872997</v>
+        <v>0.23563519299981148</v>
       </c>
       <c r="G9" t="n" s="1151">
-        <v>0.07335101068614708</v>
+        <v>0.0843902723951077</v>
       </c>
     </row>
     <row r="10">
@@ -21826,22 +21985,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="1146">
-        <v>0.26276015185165796</v>
+        <v>0.319425642241868</v>
       </c>
       <c r="C10" t="n" s="1147">
-        <v>-0.30029731640189483</v>
+        <v>-0.3530493940568014</v>
       </c>
       <c r="D10" t="n" s="1148">
-        <v>-0.10027456415667277</v>
+        <v>-0.17340067340067342</v>
       </c>
       <c r="E10" t="n" s="1149">
-        <v>0.19496726812872997</v>
+        <v>0.23563519299981148</v>
       </c>
       <c r="F10" t="n" s="1150">
         <v>1.0</v>
       </c>
       <c r="G10" t="n" s="1151">
-        <v>-0.11463340547535023</v>
+        <v>-0.05975132759779187</v>
       </c>
     </row>
     <row r="11">
@@ -21849,19 +22008,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="1146">
-        <v>0.24203120058654198</v>
+        <v>0.31523933229843204</v>
       </c>
       <c r="C11" t="n" s="1147">
-        <v>0.5089773777040515</v>
+        <v>0.3849825474087047</v>
       </c>
       <c r="D11" t="n" s="1148">
-        <v>0.15866569556587365</v>
+        <v>0.07402956691986162</v>
       </c>
       <c r="E11" t="n" s="1149">
-        <v>0.07335101068614708</v>
+        <v>0.0843902723951077</v>
       </c>
       <c r="F11" t="n" s="1150">
-        <v>-0.11463340547535023</v>
+        <v>-0.05975132759779187</v>
       </c>
       <c r="G11" t="n" s="1151">
         <v>1.0</v>
@@ -21911,19 +22070,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C16" t="n" s="1171">
-        <v>-1.6137430609197576</v>
+        <v>-1.97159605681183</v>
       </c>
       <c r="D16" t="n" s="1172">
-        <v>-1.115833854137487</v>
+        <v>-1.5882764816342652</v>
       </c>
       <c r="E16" t="n" s="1173">
-        <v>-1.283588290903828</v>
+        <v>-0.9769502193017624</v>
       </c>
       <c r="F16" t="n" s="1174">
-        <v>0.8611814556965506</v>
+        <v>1.1179847208034608</v>
       </c>
       <c r="G16" t="n" s="1175">
-        <v>0.7888227689090074</v>
+        <v>1.1017040455024651</v>
       </c>
     </row>
     <row r="17">
@@ -21931,22 +22090,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n" s="1170">
-        <v>-1.6137430609197576</v>
+        <v>-1.97159605681183</v>
       </c>
       <c r="C17" t="e" s="1171">
         <v>#DIV/0!</v>
       </c>
       <c r="D17" t="n" s="1172">
-        <v>3.619456812948879</v>
+        <v>4.041710925655122</v>
       </c>
       <c r="E17" t="n" s="1173">
-        <v>3.424067718399135</v>
+        <v>3.184073428886758</v>
       </c>
       <c r="F17" t="n" s="1174">
-        <v>-0.9955735461463381</v>
+        <v>-1.251524700709078</v>
       </c>
       <c r="G17" t="n" s="1175">
-        <v>1.8698482607787745</v>
+        <v>1.383475631953363</v>
       </c>
     </row>
     <row r="18">
@@ -21954,22 +22113,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n" s="1170">
-        <v>-1.115833854137487</v>
+        <v>-1.5882764816342652</v>
       </c>
       <c r="C18" t="n" s="1171">
-        <v>3.619456812948879</v>
+        <v>4.041710925655122</v>
       </c>
       <c r="D18" t="e" s="1172">
         <v>#DIV/0!</v>
       </c>
       <c r="E18" t="n" s="1173">
-        <v>3.4192850387310094</v>
+        <v>2.748062364070346</v>
       </c>
       <c r="F18" t="n" s="1174">
-        <v>-0.3187023363232662</v>
+        <v>-0.5839510345319111</v>
       </c>
       <c r="G18" t="n" s="1175">
-        <v>0.508182454870373</v>
+        <v>0.2462038687168273</v>
       </c>
     </row>
     <row r="19">
@@ -21977,22 +22136,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n" s="1170">
-        <v>-1.283588290903828</v>
+        <v>-0.9769502193017624</v>
       </c>
       <c r="C19" t="n" s="1171">
-        <v>3.424067718399135</v>
+        <v>3.184073428886758</v>
       </c>
       <c r="D19" t="n" s="1172">
-        <v>3.4192850387310094</v>
+        <v>2.748062364070346</v>
       </c>
       <c r="E19" t="e" s="1173">
         <v>#DIV/0!</v>
       </c>
       <c r="F19" t="n" s="1174">
-        <v>0.6286036990312038</v>
+        <v>0.8041573225474432</v>
       </c>
       <c r="G19" t="n" s="1175">
-        <v>0.23258279716908178</v>
+        <v>0.2808928766194508</v>
       </c>
     </row>
     <row r="20">
@@ -22000,22 +22159,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n" s="1170">
-        <v>0.8611814556965506</v>
+        <v>1.1179847208034608</v>
       </c>
       <c r="C20" t="n" s="1171">
-        <v>-0.9955735461463381</v>
+        <v>-1.251524700709078</v>
       </c>
       <c r="D20" t="n" s="1172">
-        <v>-0.3187023363232662</v>
+        <v>-0.5839510345319111</v>
       </c>
       <c r="E20" t="n" s="1173">
-        <v>0.6286036990312038</v>
+        <v>0.8041573225474432</v>
       </c>
       <c r="F20" t="e" s="1174">
         <v>#DIV/0!</v>
       </c>
       <c r="G20" t="n" s="1175">
-        <v>-0.36490818195711516</v>
+        <v>-0.19852744469005854</v>
       </c>
     </row>
     <row r="21">
@@ -22023,19 +22182,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="n" s="1170">
-        <v>0.7888227689090074</v>
+        <v>1.1017040455024651</v>
       </c>
       <c r="C21" t="n" s="1171">
-        <v>1.8698482607787745</v>
+        <v>1.383475631953363</v>
       </c>
       <c r="D21" t="n" s="1172">
-        <v>0.508182454870373</v>
+        <v>0.2462038687168273</v>
       </c>
       <c r="E21" t="n" s="1173">
-        <v>0.23258279716908178</v>
+        <v>0.2808928766194508</v>
       </c>
       <c r="F21" t="n" s="1174">
-        <v>-0.36490818195711516</v>
+        <v>-0.19852744469005854</v>
       </c>
       <c r="G21" t="e" s="1175">
         <v>#DIV/0!</v>
@@ -22085,7 +22244,7 @@
         <v>-0.0</v>
       </c>
       <c r="C26" t="n" s="1195">
-        <v>1.0</v>
+        <v>0.8919469697282567</v>
       </c>
       <c r="D26" t="n" s="1196">
         <v>1.0</v>
@@ -22105,16 +22264,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="n" s="1194">
-        <v>0.1376579163477293</v>
+        <v>0.07432891414402139</v>
       </c>
       <c r="C27" t="n" s="1195">
         <v>-0.0</v>
       </c>
       <c r="D27" t="n" s="1196">
-        <v>0.07040839573010665</v>
+        <v>0.029142076315910953</v>
       </c>
       <c r="E27" t="n" s="1197">
-        <v>0.09104042355639905</v>
+        <v>0.12176975736140444</v>
       </c>
       <c r="F27" t="n" s="1198">
         <v>1.0</v>
@@ -22128,16 +22287,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="n" s="1194">
-        <v>0.29058848944246973</v>
+        <v>0.14053110184653045</v>
       </c>
       <c r="C28" t="n" s="1195">
-        <v>0.004693893048673777</v>
+        <v>0.0019428050877273969</v>
       </c>
       <c r="D28" t="n" s="1196">
         <v>-0.0</v>
       </c>
       <c r="E28" t="n" s="1197">
-        <v>0.09104042355639905</v>
+        <v>0.24643080803575027</v>
       </c>
       <c r="F28" t="n" s="1198">
         <v>1.0</v>
@@ -22151,13 +22310,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="n" s="1194">
-        <v>0.22823129531177183</v>
+        <v>0.3495901909772397</v>
       </c>
       <c r="C29" t="n" s="1195">
-        <v>0.0065028873968856465</v>
+        <v>0.008697839811528888</v>
       </c>
       <c r="D29" t="n" s="1196">
-        <v>0.006555293100465565</v>
+        <v>0.01895621600275002</v>
       </c>
       <c r="E29" t="n" s="1197">
         <v>-0.0</v>
@@ -22174,16 +22333,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="n" s="1194">
-        <v>0.4093122372922975</v>
+        <v>0.2873953961727958</v>
       </c>
       <c r="C30" t="n" s="1195">
-        <v>0.3429370205247562</v>
+        <v>0.2367036837816316</v>
       </c>
       <c r="D30" t="n" s="1196">
-        <v>0.7565091206317051</v>
+        <v>0.5710337793609344</v>
       </c>
       <c r="E30" t="n" s="1197">
-        <v>0.543698558205364</v>
+        <v>0.438340057642688</v>
       </c>
       <c r="F30" t="n" s="1198">
         <v>-0.0</v>
@@ -22197,19 +22356,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="n" s="1194">
-        <v>0.44851277797292655</v>
+        <v>0.29411248518456395</v>
       </c>
       <c r="C31" t="n" s="1195">
-        <v>0.09103065403296885</v>
+        <v>0.19395111856961664</v>
       </c>
       <c r="D31" t="n" s="1196">
-        <v>0.6223467745415282</v>
+        <v>0.8100582248080089</v>
       </c>
       <c r="E31" t="n" s="1197">
-        <v>0.8207764563400677</v>
+        <v>0.7840055946333491</v>
       </c>
       <c r="F31" t="n" s="1198">
-        <v>0.7227790598787264</v>
+        <v>0.846254007639171</v>
       </c>
       <c r="G31" t="n" s="1199">
         <v>-0.0</v>
@@ -22250,16 +22409,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="n" s="1218">
-        <v>-0.815668278769966</v>
+        <v>-0.8286656306210248</v>
       </c>
       <c r="C36" t="n" s="1219">
-        <v>-0.45454545454545464</v>
+        <v>-0.5109890109890111</v>
       </c>
       <c r="D36" t="n" s="1220">
-        <v>0.16148073214499772</v>
+        <v>0.05567005112901231</v>
       </c>
       <c r="E36" t="n" s="1221">
-        <v>0.1376579163477293</v>
+        <v>0.07432891414402139</v>
       </c>
     </row>
     <row r="37">
@@ -22267,16 +22426,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="n" s="1218">
-        <v>-0.7612743253712637</v>
+        <v>-0.7939544783903912</v>
       </c>
       <c r="C37" t="n" s="1219">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
       <c r="D37" t="n" s="1220">
-        <v>0.29807336443300153</v>
+        <v>0.15625904255183104</v>
       </c>
       <c r="E37" t="n" s="1221">
-        <v>0.29058848944246973</v>
+        <v>0.14053110184653045</v>
       </c>
     </row>
     <row r="38">
@@ -22284,16 +22443,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="n" s="1218">
-        <v>-0.7813529670568811</v>
+        <v>-0.7212546868042046</v>
       </c>
       <c r="C38" t="n" s="1219">
-        <v>-0.37610364583185846</v>
+        <v>-0.2825582333929586</v>
       </c>
       <c r="D38" t="n" s="1220">
-        <v>0.2522439404846173</v>
+        <v>0.31792305773301716</v>
       </c>
       <c r="E38" t="n" s="1221">
-        <v>0.22823129531177183</v>
+        <v>0.3495901909772397</v>
       </c>
     </row>
     <row r="39">
@@ -22301,16 +22460,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="n" s="1218">
-        <v>-0.3663929660729206</v>
+        <v>-0.2810186069453077</v>
       </c>
       <c r="C39" t="n" s="1219">
-        <v>0.26276015185165796</v>
+        <v>0.319425642241868</v>
       </c>
       <c r="D39" t="n" s="1220">
-        <v>0.7270271783348862</v>
+        <v>0.7401460946557054</v>
       </c>
       <c r="E39" t="n" s="1221">
-        <v>0.4093122372922975</v>
+        <v>0.2873953961727958</v>
       </c>
     </row>
     <row r="40">
@@ -22318,16 +22477,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n" s="1218">
-        <v>-0.3854038146143936</v>
+        <v>-0.28530044226827267</v>
       </c>
       <c r="C40" t="n" s="1219">
-        <v>0.24203120058654198</v>
+        <v>0.31523933229843204</v>
       </c>
       <c r="D40" t="n" s="1220">
-        <v>0.7164205066195967</v>
+        <v>0.7380338778441516</v>
       </c>
       <c r="E40" t="n" s="1221">
-        <v>0.44851277797292655</v>
+        <v>0.29411248518456395</v>
       </c>
     </row>
     <row r="41">
@@ -22335,16 +22494,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="n" s="1218">
-        <v>0.315533367225439</v>
+        <v>0.3868114938801292</v>
       </c>
       <c r="C41" t="n" s="1219">
-        <v>0.7530659534637223</v>
+        <v>0.773040621272425</v>
       </c>
       <c r="D41" t="n" s="1220">
-        <v>0.9265331353970531</v>
+        <v>0.9285323896866248</v>
       </c>
       <c r="E41" t="n" s="1221">
-        <v>0.004693893048673777</v>
+        <v>0.0019428050877273969</v>
       </c>
     </row>
     <row r="42">
@@ -22352,16 +22511,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="n" s="1218">
-        <v>0.27789176834135504</v>
+        <v>0.22890565129677057</v>
       </c>
       <c r="C42" t="n" s="1219">
-        <v>0.734632354942602</v>
+        <v>0.692544689688624</v>
       </c>
       <c r="D42" t="n" s="1220">
-        <v>0.920461316943711</v>
+        <v>0.9000768982306663</v>
       </c>
       <c r="E42" t="n" s="1221">
-        <v>0.0065028873968856465</v>
+        <v>0.008697839811528888</v>
       </c>
     </row>
     <row r="43">
@@ -22369,16 +22528,16 @@
         <v>23</v>
       </c>
       <c r="B43" t="n" s="1218">
-        <v>-0.7456864916528952</v>
+        <v>-0.7568151990529469</v>
       </c>
       <c r="C43" t="n" s="1219">
-        <v>-0.30029731640189483</v>
+        <v>-0.3530493940568014</v>
       </c>
       <c r="D43" t="n" s="1220">
-        <v>0.3305761657640256</v>
+        <v>0.24573812300051395</v>
       </c>
       <c r="E43" t="n" s="1221">
-        <v>0.3429370205247562</v>
+        <v>0.2367036837816316</v>
       </c>
     </row>
     <row r="44">
@@ -22386,16 +22545,16 @@
         <v>24</v>
       </c>
       <c r="B44" t="n" s="1218">
-        <v>-0.09171423782317034</v>
+        <v>-0.21069540631259717</v>
       </c>
       <c r="C44" t="n" s="1219">
-        <v>0.5089773777040515</v>
+        <v>0.3849825474087047</v>
       </c>
       <c r="D44" t="n" s="1220">
-        <v>0.8380748631705957</v>
+        <v>0.7721744230526292</v>
       </c>
       <c r="E44" t="n" s="1221">
-        <v>0.09103065403296885</v>
+        <v>0.19395111856961664</v>
       </c>
     </row>
     <row r="45">
@@ -22403,16 +22562,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n" s="1218">
-        <v>0.27694426046937737</v>
+        <v>0.13421433303669628</v>
       </c>
       <c r="C45" t="n" s="1219">
-        <v>0.7341594807686742</v>
+        <v>0.638018115774506</v>
       </c>
       <c r="D45" t="n" s="1220">
-        <v>0.9203043684845018</v>
+        <v>0.87974062605109</v>
       </c>
       <c r="E45" t="n" s="1221">
-        <v>0.006555293100465565</v>
+        <v>0.01895621600275002</v>
       </c>
     </row>
     <row r="46">
@@ -22420,16 +22579,16 @@
         <v>26</v>
       </c>
       <c r="B46" t="n" s="1218">
-        <v>-0.637490071762463</v>
+        <v>-0.6612128878633109</v>
       </c>
       <c r="C46" t="n" s="1219">
-        <v>-0.10027456415667277</v>
+        <v>-0.17340067340067342</v>
       </c>
       <c r="D46" t="n" s="1220">
-        <v>0.5025475243679088</v>
+        <v>0.4174702462895621</v>
       </c>
       <c r="E46" t="n" s="1221">
-        <v>0.7565091206317051</v>
+        <v>0.5710337793609344</v>
       </c>
     </row>
     <row r="47">
@@ -22437,16 +22596,16 @@
         <v>27</v>
       </c>
       <c r="B47" t="n" s="1218">
-        <v>-0.4568345939783144</v>
+        <v>-0.49723766325041574</v>
       </c>
       <c r="C47" t="n" s="1219">
-        <v>0.15866569556587365</v>
+        <v>0.07402956691986162</v>
       </c>
       <c r="D47" t="n" s="1220">
-        <v>0.6714280793202908</v>
+        <v>0.6005201312479383</v>
       </c>
       <c r="E47" t="n" s="1221">
-        <v>0.6223467745415282</v>
+        <v>0.8100582248080089</v>
       </c>
     </row>
     <row r="48">
@@ -22454,16 +22613,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="n" s="1218">
-        <v>-0.4266759919649371</v>
+        <v>-0.3624012121599178</v>
       </c>
       <c r="C48" t="n" s="1219">
-        <v>0.19496726812872997</v>
+        <v>0.23563519299981148</v>
       </c>
       <c r="D48" t="n" s="1220">
-        <v>0.6914959942949093</v>
+        <v>0.6962281327398949</v>
       </c>
       <c r="E48" t="n" s="1221">
-        <v>0.543698558205364</v>
+        <v>0.438340057642688</v>
       </c>
     </row>
     <row r="49">
@@ -22471,16 +22630,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="n" s="1218">
-        <v>-0.5225479213896297</v>
+        <v>-0.4893486659088456</v>
       </c>
       <c r="C49" t="n" s="1219">
-        <v>0.07335101068614708</v>
+        <v>0.0843902723951077</v>
       </c>
       <c r="D49" t="n" s="1220">
-        <v>0.6211063701881423</v>
+        <v>0.6071446825812515</v>
       </c>
       <c r="E49" t="n" s="1221">
-        <v>0.8207764563400677</v>
+        <v>0.7840055946333491</v>
       </c>
     </row>
     <row r="50">
@@ -22488,16 +22647,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="n" s="1218">
-        <v>-0.6460335739996613</v>
+        <v>-0.5912707528448007</v>
       </c>
       <c r="C50" t="n" s="1219">
-        <v>-0.11463340547535023</v>
+        <v>-0.05975132759779187</v>
       </c>
       <c r="D50" t="n" s="1220">
-        <v>0.49161042400343485</v>
+        <v>0.5079569868271272</v>
       </c>
       <c r="E50" t="n" s="1221">
-        <v>0.7227790598787264</v>
+        <v>0.846254007639171</v>
       </c>
     </row>
     <row r="51">
@@ -22717,67 +22876,82 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="1240">
-        <v>0.8241600424703993</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B64" t="n" s="1241">
-        <v>-0.2328161539268661</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="C64" t="n" s="1242">
-        <v>-1.4355957758372622</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="D64" t="n" s="1243">
-        <v>-1.3020766723778172</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E64" t="n" s="1244">
         <v>-0.9136302798736788</v>
       </c>
       <c r="F64" t="n" s="1245">
-        <v>2.1129633750384773</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="1240">
-        <v>0.45629679199508744</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B65" t="n" s="1241">
-        <v>0.3074747488526356</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="C65" t="n" s="1242">
-        <v>-0.2748557234267931</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="D65" t="n" s="1243">
-        <v>0.010078688627185084</v>
+        <v>-1.3020766723778172</v>
       </c>
       <c r="E65" t="n" s="1244">
         <v>-0.9136302798736788</v>
       </c>
       <c r="F65" t="n" s="1245">
-        <v>0.5810457503364718</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="1240">
-        <v>0.8546964096694867</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B66" t="n" s="1241">
-        <v>-0.791089338425403</v>
+        <v>0.3074747488526356</v>
       </c>
       <c r="C66" t="n" s="1242">
-        <v>-1.2095717428674873</v>
+        <v>-0.2748557234267931</v>
       </c>
       <c r="D66" t="n" s="1243">
-        <v>-1.3020766723778172</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="E66" t="n" s="1244">
         <v>-0.9136302798736788</v>
       </c>
       <c r="F66" t="n" s="1245">
+        <v>0.5810457503364718</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="1240">
+        <v>0.8546964096694867</v>
+      </c>
+      <c r="B67" t="n" s="1241">
+        <v>-0.791089338425403</v>
+      </c>
+      <c r="C67" t="n" s="1242">
+        <v>-1.2095717428674873</v>
+      </c>
+      <c r="D67" t="n" s="1243">
+        <v>-1.3020766723778172</v>
+      </c>
+      <c r="E67" t="n" s="1244">
+        <v>-0.9136302798736788</v>
+      </c>
+      <c r="F67" t="n" s="1245">
         <v>-0.8230168399103068</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -22786,98 +22960,65 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="1249">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1249">
         <v>90</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="1263">
+    <row r="71">
+      <c r="A71" t="s" s="1263">
         <v>33</v>
       </c>
-      <c r="B70" t="s" s="1263">
+      <c r="B71" t="s" s="1263">
         <v>37</v>
       </c>
-      <c r="C70" t="s" s="1263">
+      <c r="C71" t="s" s="1263">
         <v>38</v>
       </c>
-      <c r="D70" t="s" s="1263">
+      <c r="D71" t="s" s="1263">
         <v>39</v>
       </c>
-      <c r="E70" t="s" s="1263">
+      <c r="E71" t="s" s="1263">
         <v>40</v>
       </c>
-      <c r="F70" t="s" s="1263">
+      <c r="F71" t="s" s="1263">
         <v>41</v>
       </c>
-      <c r="G70" t="s" s="1263">
+      <c r="G71" t="s" s="1263">
         <v>3</v>
       </c>
-      <c r="H70" t="s" s="1263">
+      <c r="H71" t="s" s="1263">
         <v>4</v>
       </c>
-      <c r="I70" t="s" s="1263">
+      <c r="I71" t="s" s="1263">
         <v>5</v>
       </c>
-      <c r="J70" t="s" s="1263">
+      <c r="J71" t="s" s="1263">
         <v>6</v>
       </c>
-      <c r="K70" t="s" s="1263">
+      <c r="K71" t="s" s="1263">
         <v>7</v>
       </c>
-      <c r="L70" t="s" s="1263">
+      <c r="L71" t="s" s="1263">
         <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="1264">
-        <v>10170.0</v>
-      </c>
-      <c r="B71" t="n" s="1265">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C71" t="s" s="1266">
-        <v>59</v>
-      </c>
-      <c r="D71" t="s" s="1267">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s" s="1268">
-        <v>53</v>
-      </c>
-      <c r="F71" t="s" s="1269">
-        <v>74</v>
-      </c>
-      <c r="G71" t="n" s="1270">
-        <v>0.44355069885067455</v>
-      </c>
-      <c r="H71" t="n" s="1271">
-        <v>0.5697381260416503</v>
-      </c>
-      <c r="I71" t="n" s="1272">
-        <v>0.3390917056505436</v>
-      </c>
-      <c r="J71" t="n" s="1273">
-        <v>0.8125130980292388</v>
-      </c>
-      <c r="K71" t="n" s="1274">
-        <v>-0.9136302798736788</v>
-      </c>
-      <c r="L71" t="n" s="1275">
-        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="1264">
-        <v>10176.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B72" t="n" s="1265">
-        <v>1.0276949E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C72" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D72" t="s" s="1267">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s" s="1268">
         <v>53</v>
@@ -22886,74 +23027,74 @@
         <v>74</v>
       </c>
       <c r="G72" t="n" s="1270">
-        <v>0.5310873221279265</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="H72" t="n" s="1271">
-        <v>-0.6106220062284993</v>
+        <v>0.5697381260416503</v>
       </c>
       <c r="I72" t="n" s="1272">
-        <v>-0.621765728385078</v>
+        <v>0.3390917056505436</v>
       </c>
       <c r="J72" t="n" s="1273">
-        <v>0.27922605818079327</v>
+        <v>0.8125130980292388</v>
       </c>
       <c r="K72" t="n" s="1274">
-        <v>1.276931514799406</v>
+        <v>-0.9136302798736788</v>
       </c>
       <c r="L72" t="n" s="1275">
-        <v>-0.8230168399103068</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="1264">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B73" t="n" s="1265">
-        <v>8656201.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C73" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D73" t="s" s="1267">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s" s="1268">
         <v>53</v>
       </c>
       <c r="F73" t="s" s="1269">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G73" t="n" s="1270">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H73" t="n" s="1271">
-        <v>-0.07571978819468783</v>
+        <v>-0.6106220062284993</v>
       </c>
       <c r="I73" t="n" s="1272">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
       <c r="J73" t="n" s="1273">
         <v>0.27922605818079327</v>
       </c>
       <c r="K73" t="n" s="1274">
-        <v>0.9902035585447597</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L73" t="n" s="1275">
-        <v>0.21371742061314003</v>
+        <v>-0.8230168399103068</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="1264">
-        <v>10183.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B74" t="n" s="1265">
-        <v>1.035203E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C74" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D74" t="s" s="1267">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s" s="1268">
         <v>53</v>
@@ -22962,74 +23103,74 @@
         <v>75</v>
       </c>
       <c r="G74" t="n" s="1270">
-        <v>0.6398767900707459</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H74" t="n" s="1271">
-        <v>-0.534796421058169</v>
+        <v>-0.07571978819468783</v>
       </c>
       <c r="I74" t="n" s="1272">
-        <v>-0.7897528725203661</v>
+        <v>0.19438092697207512</v>
       </c>
       <c r="J74" t="n" s="1273">
-        <v>0.010078688627185084</v>
+        <v>0.27922605818079327</v>
       </c>
       <c r="K74" t="n" s="1274">
-        <v>1.276931514799406</v>
+        <v>0.9902035585447597</v>
       </c>
       <c r="L74" t="n" s="1275">
-        <v>-0.08257998554008988</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="1264">
-        <v>10186.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B75" t="n" s="1265">
-        <v>1.0310551E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C75" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D75" t="s" s="1267">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E75" t="s" s="1268">
         <v>53</v>
       </c>
       <c r="F75" t="s" s="1269">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G75" t="n" s="1270">
-        <v>0.7744710186718347</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H75" t="n" s="1271">
-        <v>0.33599966761122724</v>
+        <v>-0.534796421058169</v>
       </c>
       <c r="I75" t="n" s="1272">
-        <v>-0.11051255328776674</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J75" t="n" s="1273">
-        <v>0.6054282939846205</v>
+        <v>0.010078688627185084</v>
       </c>
       <c r="K75" t="n" s="1274">
-        <v>1.406818292763501</v>
+        <v>1.276931514799406</v>
       </c>
       <c r="L75" t="n" s="1275">
-        <v>2.1129633750384773</v>
+        <v>-0.08257998554008988</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="1264">
-        <v>10195.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B76" t="n" s="1265">
-        <v>1.0351971E7</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C76" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D76" t="s" s="1267">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s" s="1268">
         <v>53</v>
@@ -23038,36 +23179,36 @@
         <v>74</v>
       </c>
       <c r="G76" t="n" s="1270">
-        <v>0.4770354022576471</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H76" t="n" s="1271">
-        <v>0.28829891230944166</v>
+        <v>0.33599966761122724</v>
       </c>
       <c r="I76" t="n" s="1272">
-        <v>0.48203349533710915</v>
+        <v>-0.11051255328776674</v>
       </c>
       <c r="J76" t="n" s="1273">
-        <v>-0.4561855465861614</v>
+        <v>0.6054282939846205</v>
       </c>
       <c r="K76" t="n" s="1274">
-        <v>-0.9136302798736788</v>
+        <v>1.406818292763501</v>
       </c>
       <c r="L76" t="n" s="1275">
-        <v>0.21371742061314003</v>
+        <v>2.1129633750384773</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="1264">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B77" t="n" s="1265">
-        <v>1.0310655E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C77" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D77" t="s" s="1267">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s" s="1268">
         <v>53</v>
@@ -23076,36 +23217,36 @@
         <v>74</v>
       </c>
       <c r="G77" t="n" s="1270">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H77" t="n" s="1271">
-        <v>0.008114607330584278</v>
+        <v>0.28829891230944166</v>
       </c>
       <c r="I77" t="n" s="1272">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
       <c r="J77" t="n" s="1273">
-        <v>-0.6724647283674472</v>
+        <v>-0.4561855465861614</v>
       </c>
       <c r="K77" t="n" s="1274">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L77" t="n" s="1275">
-        <v>0.5810457503364718</v>
+        <v>0.21371742061314003</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="1264">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B78" t="n" s="1265">
-        <v>1.0276661E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C78" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D78" t="s" s="1267">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s" s="1268">
         <v>53</v>
@@ -23114,92 +23255,92 @@
         <v>74</v>
       </c>
       <c r="G78" t="n" s="1270">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H78" t="n" s="1271">
-        <v>0.4666838297954899</v>
+        <v>0.008114607330584278</v>
       </c>
       <c r="I78" t="n" s="1272">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
       <c r="J78" t="n" s="1273">
-        <v>1.4951814648985664</v>
+        <v>-0.6724647283674472</v>
       </c>
       <c r="K78" t="n" s="1274">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L78" t="n" s="1275">
-        <v>-0.587401218160607</v>
+        <v>0.5810457503364718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="1264">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B79" t="n" s="1265">
-        <v>1.0310888E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C79" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D79" t="s" s="1267">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s" s="1268">
         <v>53</v>
       </c>
       <c r="F79" t="s" s="1269">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G79" t="n" s="1270">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H79" t="n" s="1271">
-        <v>1.2184175744803527</v>
+        <v>0.4666838297954899</v>
       </c>
       <c r="I79" t="n" s="1272">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
       <c r="J79" t="n" s="1273">
-        <v>1.7454889568746412</v>
+        <v>1.4951814648985664</v>
       </c>
       <c r="K79" t="n" s="1274">
         <v>-0.9136302798736788</v>
       </c>
       <c r="L79" t="n" s="1275">
-        <v>2.1129633750384773</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="1264">
-        <v>10209.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B80" t="n" s="1265">
-        <v>1.0262669E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C80" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D80" t="s" s="1267">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s" s="1268">
         <v>53</v>
       </c>
       <c r="F80" t="s" s="1269">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G80" t="n" s="1270">
-        <v>0.8241600424703993</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H80" t="n" s="1271">
-        <v>-0.2328161539268661</v>
+        <v>1.2184175744803527</v>
       </c>
       <c r="I80" t="n" s="1272">
-        <v>-1.4355957758372622</v>
+        <v>1.646504990094715</v>
       </c>
       <c r="J80" t="n" s="1273">
-        <v>-1.3020766723778172</v>
+        <v>1.7454889568746412</v>
       </c>
       <c r="K80" t="n" s="1274">
         <v>-0.9136302798736788</v>
@@ -23210,31 +23351,31 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="1264">
-        <v>10221.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B81" t="n" s="1265">
-        <v>9082496.0</v>
+        <v>9795272.0</v>
       </c>
       <c r="C81" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D81" t="s" s="1267">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s" s="1268">
         <v>53</v>
       </c>
       <c r="F81" t="s" s="1269">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G81" t="n" s="1270">
-        <v>0.45629679199508744</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="H81" t="n" s="1271">
-        <v>0.3074747488526356</v>
+        <v>0.457867387478017</v>
       </c>
       <c r="I81" t="n" s="1272">
-        <v>-0.2748557234267931</v>
+        <v>1.4951617995718107</v>
       </c>
       <c r="J81" t="n" s="1273">
         <v>0.010078688627185084</v>
@@ -23243,21 +23384,21 @@
         <v>-0.9136302798736788</v>
       </c>
       <c r="L81" t="n" s="1275">
-        <v>0.5810457503364718</v>
+        <v>-0.587401218160607</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="1264">
-        <v>10240.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B82" t="n" s="1265">
-        <v>1.0276654E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C82" t="s" s="1266">
         <v>59</v>
       </c>
       <c r="D82" t="s" s="1267">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s" s="1268">
         <v>53</v>
@@ -23266,13 +23407,13 @@
         <v>74</v>
       </c>
       <c r="G82" t="n" s="1270">
-        <v>0.8546964096694867</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="H82" t="n" s="1271">
-        <v>-0.791089338425403</v>
+        <v>-0.2328161539268661</v>
       </c>
       <c r="I82" t="n" s="1272">
-        <v>-1.2095717428674873</v>
+        <v>-1.4355957758372622</v>
       </c>
       <c r="J82" t="n" s="1273">
         <v>-1.3020766723778172</v>
@@ -23281,6 +23422,82 @@
         <v>-0.9136302798736788</v>
       </c>
       <c r="L82" t="n" s="1275">
+        <v>2.1129633750384773</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="1264">
+        <v>10221.0</v>
+      </c>
+      <c r="B83" t="n" s="1265">
+        <v>9082496.0</v>
+      </c>
+      <c r="C83" t="s" s="1266">
+        <v>59</v>
+      </c>
+      <c r="D83" t="s" s="1267">
+        <v>71</v>
+      </c>
+      <c r="E83" t="s" s="1268">
+        <v>53</v>
+      </c>
+      <c r="F83" t="s" s="1269">
+        <v>74</v>
+      </c>
+      <c r="G83" t="n" s="1270">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="H83" t="n" s="1271">
+        <v>0.3074747488526356</v>
+      </c>
+      <c r="I83" t="n" s="1272">
+        <v>-0.2748557234267931</v>
+      </c>
+      <c r="J83" t="n" s="1273">
+        <v>0.010078688627185084</v>
+      </c>
+      <c r="K83" t="n" s="1274">
+        <v>-0.9136302798736788</v>
+      </c>
+      <c r="L83" t="n" s="1275">
+        <v>0.5810457503364718</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="1264">
+        <v>10240.0</v>
+      </c>
+      <c r="B84" t="n" s="1265">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C84" t="s" s="1266">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s" s="1267">
+        <v>72</v>
+      </c>
+      <c r="E84" t="s" s="1268">
+        <v>53</v>
+      </c>
+      <c r="F84" t="s" s="1269">
+        <v>74</v>
+      </c>
+      <c r="G84" t="n" s="1270">
+        <v>0.8546964096694867</v>
+      </c>
+      <c r="H84" t="n" s="1271">
+        <v>-0.791089338425403</v>
+      </c>
+      <c r="I84" t="n" s="1272">
+        <v>-1.2095717428674873</v>
+      </c>
+      <c r="J84" t="n" s="1273">
+        <v>-1.3020766723778172</v>
+      </c>
+      <c r="K84" t="n" s="1274">
+        <v>-0.9136302798736788</v>
+      </c>
+      <c r="L84" t="n" s="1275">
         <v>-0.8230168399103068</v>
       </c>
     </row>
